--- a/gMS Opcodes.xlsx
+++ b/gMS Opcodes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="1663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="1682">
   <si>
     <t>Opcode Name</t>
   </si>
@@ -3105,19 +3105,16 @@
     <t>206</t>
   </si>
   <si>
-    <t>CHATTEXT_1</t>
-  </si>
-  <si>
-    <t>16A</t>
-  </si>
-  <si>
     <t>CHALKBOARD</t>
   </si>
   <si>
     <t>16B</t>
   </si>
   <si>
-    <t>UPDATE_CHAR_BOX</t>
+    <t>207</t>
+  </si>
+  <si>
+    <t>MINI_ROOM_BALLOON</t>
   </si>
   <si>
     <t>16C</t>
@@ -3129,9 +3126,15 @@
     <t>16D</t>
   </si>
   <si>
+    <t>209</t>
+  </si>
+  <si>
     <t>SHOW_SCROLL_EFFECT</t>
   </si>
   <si>
+    <t>20A</t>
+  </si>
+  <si>
     <t>SHOW_SOUL_EFFECT</t>
   </si>
   <si>
@@ -3150,6 +3153,27 @@
     <t>20F</t>
   </si>
   <si>
+    <t>SHOW_LUCKY_ITEM_EFFECT</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>SHOW_MEMORIAL_EFFECT</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>SHOW_BONUS_POTENTIAL_EFFECT</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>SHOW_VICIOUS_HAMMER_EFFECT</t>
+  </si>
+  <si>
     <t>SHOW_FIREWORKS_EFFECT</t>
   </si>
   <si>
@@ -3165,16 +3189,25 @@
     <t>267</t>
   </si>
   <si>
+    <t>217</t>
+  </si>
+  <si>
     <t>PVP_MIST</t>
   </si>
   <si>
+    <t>218</t>
+  </si>
+  <si>
     <t>PVP_COOL</t>
   </si>
   <si>
     <t>TESLA_TRIANGLE</t>
   </si>
   <si>
-    <t>FOLLOW_EFFECT</t>
+    <t>21B</t>
+  </si>
+  <si>
+    <t>FOLLOW_CHARACTER</t>
   </si>
   <si>
     <t>21C</t>
@@ -3192,12 +3225,24 @@
     <t>221</t>
   </si>
   <si>
-    <t>SHOW_DAMAGE_SKIN</t>
+    <t>SET_DAMAGE_SKIN</t>
   </si>
   <si>
     <t>228</t>
   </si>
   <si>
+    <t>SET_PREMIUM_DAMAGE_SKIN</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>SET_SOUL_EFFECT</t>
+  </si>
+  <si>
+    <t>22A</t>
+  </si>
+  <si>
     <t>22B</t>
   </si>
   <si>
@@ -3213,6 +3258,12 @@
     <t>166</t>
   </si>
   <si>
+    <t>SET_EMOTICON_ITEM</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
     <t>SET_PHASE</t>
   </si>
   <si>
@@ -3231,22 +3282,22 @@
     <t>243</t>
   </si>
   <si>
-    <t>SPAWN_PET_2</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
     <t>244</t>
   </si>
   <si>
-    <t>196</t>
+    <t>PET_ACTION</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
   </si>
   <si>
     <t>PET_NAMECHANGE</t>
   </si>
   <si>
-    <t>197</t>
+    <t>247</t>
   </si>
   <si>
     <t>PET_EXCEPTION_LIST</t>
@@ -3255,492 +3306,492 @@
     <t>22C</t>
   </si>
   <si>
+    <t>248</t>
+  </si>
+  <si>
     <t>PET_COLOR</t>
   </si>
   <si>
+    <t>PET_SIZE</t>
+  </si>
+  <si>
+    <t>24A</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>24D</t>
+  </si>
+  <si>
+    <t>DRAGON_SPAWN</t>
+  </si>
+  <si>
+    <t>19C</t>
+  </si>
+  <si>
+    <t>24E</t>
+  </si>
+  <si>
+    <t>INNER_ABILITY_RESET_MSG</t>
+  </si>
+  <si>
+    <t>DRAGON_MOVE</t>
+  </si>
+  <si>
+    <t>19D</t>
+  </si>
+  <si>
+    <t>24F</t>
+  </si>
+  <si>
+    <t>DRAGON_REMOVE</t>
+  </si>
+  <si>
+    <t>ANDROID_SPAWN</t>
+  </si>
+  <si>
+    <t>ANDROID_MOVE</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>ANDROID_EMOTION</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>ANDROID_UPDATE</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>ANDROID_DEACTIVATED</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>SPAWN_HAKU</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>HAKU_MOVE</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>HAKU_EXCL_RESULT</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>HAKU_TRANSFORM_EFFECT</t>
+  </si>
+  <si>
+    <t>25A</t>
+  </si>
+  <si>
+    <t>HAKU_UPDATE</t>
+  </si>
+  <si>
+    <t>25B</t>
+  </si>
+  <si>
+    <t>REMOVE_HAKU</t>
+  </si>
+  <si>
+    <t>25C</t>
+  </si>
+  <si>
+    <t>SKILL_PET_MOVE</t>
+  </si>
+  <si>
+    <t>25E</t>
+  </si>
+  <si>
+    <t>SKILL_PET_ACTION</t>
+  </si>
+  <si>
+    <t>25F</t>
+  </si>
+  <si>
+    <t>SKILL_PET_STATE</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>26E</t>
+  </si>
+  <si>
+    <t>26F</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>RESPAWN_FAMILIAR</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>UPDATE_FAMILIAR</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>25D</t>
+  </si>
+  <si>
+    <t>ENERGY_ATTACK</t>
+  </si>
+  <si>
+    <t>MOVE_ATTACK</t>
+  </si>
+  <si>
+    <t>CANCEL_SKILL_EFFECT</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>DAMAGE_PLAYER</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>FACIAL_EXPRESSION</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>SHOW_EFFECT</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>SHOW_TITLE</t>
+  </si>
+  <si>
+    <t>CASH_EFFECT</t>
+  </si>
+  <si>
+    <t>SHOW_CHAIR</t>
+  </si>
+  <si>
+    <t>26C</t>
+  </si>
+  <si>
+    <t>UPDATE_CHAR_LOOK</t>
+  </si>
+  <si>
+    <t>26D</t>
+  </si>
+  <si>
+    <t>SHOW_FOREIGN_EFFECT</t>
+  </si>
+  <si>
+    <t>GIVE_FOREIGN_BUFF</t>
+  </si>
+  <si>
+    <t>CANCEL_FOREIGN_BUFF</t>
+  </si>
+  <si>
+    <t>UPDATE_PARTYMEMBER_HP</t>
+  </si>
+  <si>
+    <t>LOAD_GUILD_NAME</t>
+  </si>
+  <si>
+    <t>LOAD_GUILD_ICON</t>
+  </si>
+  <si>
+    <t>LOAD_TEAM</t>
+  </si>
+  <si>
+    <t>SHOW_HARVEST</t>
+  </si>
+  <si>
+    <t>2BC</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>PVP_HP</t>
+  </si>
+  <si>
+    <t>MOVE_SCREEN</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>DIRECTION_FACIAL_EXPRESSION</t>
+  </si>
+  <si>
+    <t>SHOW_SPECIAL_EFFECT</t>
+  </si>
+  <si>
+    <t>28A</t>
+  </si>
+  <si>
+    <t>2AC</t>
+  </si>
+  <si>
+    <t>CURRENT_MAP_WARP</t>
+  </si>
+  <si>
+    <t>28B</t>
+  </si>
+  <si>
+    <t>MESOBAG_SUCCESS</t>
+  </si>
+  <si>
+    <t>MESOBAG_FAILURE</t>
+  </si>
+  <si>
+    <t>UPDATE_QUEST_INFO</t>
+  </si>
+  <si>
+    <t>2B1</t>
+  </si>
+  <si>
+    <t>R_MESOBAG_SUCCESS</t>
+  </si>
+  <si>
+    <t>1EB</t>
+  </si>
+  <si>
+    <t>R_MESOBAG_FAILURE</t>
+  </si>
+  <si>
+    <t>1EC</t>
+  </si>
+  <si>
+    <t>MAP_FADE</t>
+  </si>
+  <si>
+    <t>MAP_FADE_FORCE</t>
+  </si>
+  <si>
+    <t>HP_DECREASE</t>
+  </si>
+  <si>
+    <t>PLAYER_HINT</t>
+  </si>
+  <si>
+    <t>1F2</t>
+  </si>
+  <si>
+    <t>PLAY_EVENT_SOUND</t>
+  </si>
+  <si>
+    <t>1F3</t>
+  </si>
+  <si>
+    <t>PLAY_MINIGAME_SOUND</t>
+  </si>
+  <si>
+    <t>1F4</t>
+  </si>
+  <si>
+    <t>MAKER_SKILL</t>
+  </si>
+  <si>
+    <t>OPEN_UI</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>OPEN_UI_OPTION</t>
+  </si>
+  <si>
+    <t>29B</t>
+  </si>
+  <si>
+    <t>INTRO_LOCK</t>
+  </si>
+  <si>
+    <t>INTRO_ENABLE_UI</t>
+  </si>
+  <si>
+    <t>INTRO_DISABLE_UI</t>
+  </si>
+  <si>
+    <t>29E</t>
+  </si>
+  <si>
+    <t>SUMMON_HINT</t>
+  </si>
+  <si>
+    <t>SUMMON_HINT_MSG</t>
+  </si>
+  <si>
+    <t>29F</t>
+  </si>
+  <si>
+    <t>2A0</t>
+  </si>
+  <si>
+    <t>ARAN_COMBO_RECHARGE</t>
+  </si>
+  <si>
+    <t>2A1</t>
+  </si>
+  <si>
+    <t>RANDOM_EMOTION</t>
+  </si>
+  <si>
+    <t>RADIO_SCHEDULE</t>
+  </si>
+  <si>
+    <t>OPEN_SKILL_GUIDE</t>
+  </si>
+  <si>
+    <t>GAME_MSG</t>
+  </si>
+  <si>
+    <t>GAME_MESSAGE</t>
+  </si>
+  <si>
+    <t>2A9</t>
+  </si>
+  <si>
+    <t>2CD</t>
+  </si>
+  <si>
+    <t>BUFF_ZONE_EFFECT</t>
+  </si>
+  <si>
+    <t>20C</t>
+  </si>
+  <si>
+    <t>GO_CASHSHOP_SN</t>
+  </si>
+  <si>
+    <t>20D</t>
+  </si>
+  <si>
+    <t>DAMAGE_METER</t>
+  </si>
+  <si>
+    <t>TIME_BOMB_ATTACK</t>
+  </si>
+  <si>
+    <t>FOLLOW_MOVE</t>
+  </si>
+  <si>
+    <t>2D2</t>
+  </si>
+  <si>
+    <t>FOLLOW_MSG</t>
+  </si>
+  <si>
+    <t>2D3</t>
+  </si>
+  <si>
+    <t>AP_SP_EVENT</t>
+  </si>
+  <si>
+    <t>QUEST_GUIDE_NPC</t>
+  </si>
+  <si>
+    <t>REGISTER_FAMILIAR</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>35B</t>
+  </si>
+  <si>
+    <t>FAMILIAR_MESSAGE</t>
+  </si>
+  <si>
+    <t>HARVEST_MESSAGE</t>
+  </si>
+  <si>
+    <t>2D6</t>
+  </si>
+  <si>
+    <t>RUNE_ACTION</t>
+  </si>
+  <si>
+    <t>2D7</t>
+  </si>
+  <si>
+    <t>SHOW_MAP_NAME</t>
+  </si>
+  <si>
+    <t>OPEN_BAG</t>
+  </si>
+  <si>
+    <t>DRAGON_BLINK</t>
+  </si>
+  <si>
+    <t>PVP_ICEGAGE</t>
+  </si>
+  <si>
+    <t>DIRECTION_INFO</t>
+  </si>
+  <si>
+    <t>2B7</t>
+  </si>
+  <si>
+    <t>2B8</t>
+  </si>
+  <si>
+    <t>PLAY_MOVIE</t>
+  </si>
+  <si>
+    <t>2BB</t>
+  </si>
+  <si>
+    <t>CAKE_VS_PIE</t>
+  </si>
+  <si>
+    <t>PHANTOM_CARD</t>
+  </si>
+  <si>
+    <t>LUMINOUS_COMBO</t>
+  </si>
+  <si>
+    <t>MOVE_SCREEN_X</t>
+  </si>
+  <si>
     <t>199</t>
   </si>
   <si>
-    <t>PET_SIZE</t>
+    <t>MOVE_SCREEN_DOWN</t>
   </si>
   <si>
     <t>19A</t>
   </si>
   <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>DRAGON_SPAWN</t>
-  </si>
-  <si>
-    <t>19C</t>
-  </si>
-  <si>
-    <t>24E</t>
-  </si>
-  <si>
-    <t>INNER_ABILITY_RESET_MSG</t>
-  </si>
-  <si>
-    <t>DRAGON_MOVE</t>
-  </si>
-  <si>
-    <t>19D</t>
-  </si>
-  <si>
-    <t>24F</t>
-  </si>
-  <si>
-    <t>DRAGON_REMOVE</t>
-  </si>
-  <si>
-    <t>ANDROID_SPAWN</t>
-  </si>
-  <si>
-    <t>ANDROID_MOVE</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>ANDROID_EMOTION</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>ANDROID_UPDATE</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>ANDROID_DEACTIVATED</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>26E</t>
-  </si>
-  <si>
-    <t>RESPAWN_FAMILIAR</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>UPDATE_FAMILIAR</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>HAKU_CHANGE_1</t>
-  </si>
-  <si>
-    <t>1A4</t>
-  </si>
-  <si>
-    <t>HAKU_CHANGE_0</t>
-  </si>
-  <si>
-    <t>HAKU_MOVE</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>HAKU_UNK</t>
-  </si>
-  <si>
-    <t>1B3</t>
-  </si>
-  <si>
-    <t>HAKU_CHANGE</t>
-  </si>
-  <si>
-    <t>SPAWN_HAKU</t>
-  </si>
-  <si>
-    <t>1B7</t>
-  </si>
-  <si>
-    <t>25A</t>
-  </si>
-  <si>
-    <t>25B</t>
-  </si>
-  <si>
-    <t>25C</t>
-  </si>
-  <si>
-    <t>25D</t>
-  </si>
-  <si>
-    <t>ENERGY_ATTACK</t>
-  </si>
-  <si>
-    <t>25E</t>
-  </si>
-  <si>
-    <t>25F</t>
-  </si>
-  <si>
-    <t>MOVE_ATTACK</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>CANCEL_SKILL_EFFECT</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>DAMAGE_PLAYER</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>FACIAL_EXPRESSION</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>SHOW_EFFECT</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>SHOW_TITLE</t>
-  </si>
-  <si>
-    <t>CASH_EFFECT</t>
-  </si>
-  <si>
-    <t>SHOW_CHAIR</t>
-  </si>
-  <si>
-    <t>26C</t>
-  </si>
-  <si>
-    <t>UPDATE_CHAR_LOOK</t>
-  </si>
-  <si>
-    <t>26D</t>
-  </si>
-  <si>
-    <t>SHOW_FOREIGN_EFFECT</t>
-  </si>
-  <si>
-    <t>GIVE_FOREIGN_BUFF</t>
-  </si>
-  <si>
-    <t>26F</t>
-  </si>
-  <si>
-    <t>CANCEL_FOREIGN_BUFF</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>UPDATE_PARTYMEMBER_HP</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>LOAD_GUILD_NAME</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>LOAD_GUILD_ICON</t>
-  </si>
-  <si>
-    <t>LOAD_TEAM</t>
-  </si>
-  <si>
-    <t>SHOW_HARVEST</t>
-  </si>
-  <si>
-    <t>2BC</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>PVP_HP</t>
-  </si>
-  <si>
-    <t>MOVE_SCREEN</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>DIRECTION_FACIAL_EXPRESSION</t>
-  </si>
-  <si>
-    <t>SHOW_SPECIAL_EFFECT</t>
-  </si>
-  <si>
-    <t>28A</t>
-  </si>
-  <si>
-    <t>2AC</t>
-  </si>
-  <si>
-    <t>CURRENT_MAP_WARP</t>
-  </si>
-  <si>
-    <t>28B</t>
-  </si>
-  <si>
-    <t>MESOBAG_SUCCESS</t>
-  </si>
-  <si>
-    <t>MESOBAG_FAILURE</t>
-  </si>
-  <si>
-    <t>UPDATE_QUEST_INFO</t>
-  </si>
-  <si>
-    <t>2B1</t>
-  </si>
-  <si>
-    <t>R_MESOBAG_SUCCESS</t>
-  </si>
-  <si>
-    <t>1EB</t>
-  </si>
-  <si>
-    <t>R_MESOBAG_FAILURE</t>
-  </si>
-  <si>
-    <t>1EC</t>
-  </si>
-  <si>
-    <t>MAP_FADE</t>
-  </si>
-  <si>
-    <t>MAP_FADE_FORCE</t>
-  </si>
-  <si>
-    <t>HP_DECREASE</t>
-  </si>
-  <si>
-    <t>PLAYER_HINT</t>
-  </si>
-  <si>
-    <t>1F2</t>
-  </si>
-  <si>
-    <t>PLAY_EVENT_SOUND</t>
-  </si>
-  <si>
-    <t>1F3</t>
-  </si>
-  <si>
-    <t>PLAY_MINIGAME_SOUND</t>
-  </si>
-  <si>
-    <t>1F4</t>
-  </si>
-  <si>
-    <t>MAKER_SKILL</t>
-  </si>
-  <si>
-    <t>OPEN_UI</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>OPEN_UI_OPTION</t>
-  </si>
-  <si>
-    <t>29B</t>
-  </si>
-  <si>
-    <t>INTRO_LOCK</t>
-  </si>
-  <si>
-    <t>INTRO_ENABLE_UI</t>
-  </si>
-  <si>
-    <t>INTRO_DISABLE_UI</t>
-  </si>
-  <si>
-    <t>29E</t>
-  </si>
-  <si>
-    <t>SUMMON_HINT</t>
-  </si>
-  <si>
-    <t>SUMMON_HINT_MSG</t>
-  </si>
-  <si>
-    <t>29F</t>
-  </si>
-  <si>
-    <t>2A0</t>
-  </si>
-  <si>
-    <t>ARAN_COMBO_RECHARGE</t>
-  </si>
-  <si>
-    <t>2A1</t>
-  </si>
-  <si>
-    <t>RANDOM_EMOTION</t>
-  </si>
-  <si>
-    <t>RADIO_SCHEDULE</t>
-  </si>
-  <si>
-    <t>OPEN_SKILL_GUIDE</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>GAME_MSG</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>GAME_MESSAGE</t>
-  </si>
-  <si>
-    <t>2A9</t>
-  </si>
-  <si>
-    <t>2CD</t>
-  </si>
-  <si>
-    <t>BUFF_ZONE_EFFECT</t>
-  </si>
-  <si>
-    <t>20C</t>
-  </si>
-  <si>
-    <t>GO_CASHSHOP_SN</t>
-  </si>
-  <si>
-    <t>20D</t>
-  </si>
-  <si>
-    <t>DAMAGE_METER</t>
-  </si>
-  <si>
-    <t>TIME_BOMB_ATTACK</t>
-  </si>
-  <si>
-    <t>FOLLOW_MOVE</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>2D2</t>
-  </si>
-  <si>
-    <t>FOLLOW_MSG</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>2D3</t>
-  </si>
-  <si>
-    <t>AP_SP_EVENT</t>
-  </si>
-  <si>
-    <t>QUEST_GUIDE_NPC</t>
-  </si>
-  <si>
-    <t>REGISTER_FAMILIAR</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>35B</t>
-  </si>
-  <si>
-    <t>FAMILIAR_MESSAGE</t>
-  </si>
-  <si>
-    <t>HARVEST_MESSAGE</t>
-  </si>
-  <si>
-    <t>2D6</t>
-  </si>
-  <si>
-    <t>RUNE_ACTION</t>
-  </si>
-  <si>
-    <t>2D7</t>
-  </si>
-  <si>
-    <t>SHOW_MAP_NAME</t>
-  </si>
-  <si>
-    <t>OPEN_BAG</t>
-  </si>
-  <si>
-    <t>DRAGON_BLINK</t>
-  </si>
-  <si>
-    <t>PVP_ICEGAGE</t>
-  </si>
-  <si>
-    <t>DIRECTION_INFO</t>
-  </si>
-  <si>
-    <t>2B7</t>
-  </si>
-  <si>
-    <t>2B8</t>
-  </si>
-  <si>
-    <t>PLAY_MOVIE</t>
-  </si>
-  <si>
-    <t>2BB</t>
-  </si>
-  <si>
-    <t>CAKE_VS_PIE</t>
-  </si>
-  <si>
-    <t>PHANTOM_CARD</t>
-  </si>
-  <si>
-    <t>LUMINOUS_COMBO</t>
-  </si>
-  <si>
-    <t>22A</t>
-  </si>
-  <si>
-    <t>MOVE_SCREEN_X</t>
-  </si>
-  <si>
-    <t>MOVE_SCREEN_DOWN</t>
-  </si>
-  <si>
     <t>CAKE_PIE_INSTRUMENTS</t>
   </si>
   <si>
@@ -4428,9 +4479,6 @@
     <t>TOURNAMENT_MATCH_TABLE</t>
   </si>
   <si>
-    <t>237</t>
-  </si>
-  <si>
     <t>TOURNAMENT_SET_PRIZE</t>
   </si>
   <si>
@@ -4785,7 +4833,7 @@
     <t>sent on use</t>
   </si>
   <si>
-    <t>Flash Blink: 0x2D9 (Send) [Byte]</t>
+    <t>Flash Blink: 0x2D9 (send) [Byte]</t>
   </si>
   <si>
     <t>byte seems random</t>
@@ -4977,6 +5025,9 @@
     <t>NPCs</t>
   </si>
   <si>
+    <t>Basic Mobs</t>
+  </si>
+  <si>
     <t>TODO</t>
   </si>
   <si>
@@ -5005,6 +5056,12 @@
   </si>
   <si>
     <t>New portals &amp; quests since v146</t>
+  </si>
+  <si>
+    <t>Item Gem Pots</t>
+  </si>
+  <si>
+    <t>Bosses</t>
   </si>
 </sst>
 </file>
@@ -16165,7 +16222,9 @@
         <v>752</v>
       </c>
       <c r="C176" s="16"/>
-      <c r="D176" s="16"/>
+      <c r="D176" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="E176" s="14"/>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
@@ -17330,7 +17389,9 @@
         <v>427</v>
       </c>
       <c r="C254" s="16"/>
-      <c r="D254" s="16"/>
+      <c r="D254" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="E254" s="14"/>
       <c r="F254" s="14"/>
       <c r="G254" s="14"/>
@@ -17552,7 +17613,9 @@
         <v>1030</v>
       </c>
       <c r="C269" s="16"/>
-      <c r="D269" s="16"/>
+      <c r="D269" s="9" t="s">
+        <v>1031</v>
+      </c>
       <c r="E269" s="14"/>
       <c r="F269" s="14"/>
       <c r="G269" s="14"/>
@@ -17560,13 +17623,15 @@
     </row>
     <row r="270">
       <c r="A270" s="4" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C270" s="16"/>
-      <c r="D270" s="16"/>
+      <c r="D270" s="9" t="s">
+        <v>429</v>
+      </c>
       <c r="E270" s="14"/>
       <c r="F270" s="14"/>
       <c r="G270" s="14"/>
@@ -17574,13 +17639,15 @@
     </row>
     <row r="271">
       <c r="A271" s="4" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C271" s="16"/>
-      <c r="D271" s="16"/>
+      <c r="D271" s="9" t="s">
+        <v>1036</v>
+      </c>
       <c r="E271" s="14"/>
       <c r="F271" s="14"/>
       <c r="G271" s="14"/>
@@ -17588,13 +17655,15 @@
     </row>
     <row r="272">
       <c r="A272" s="4" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>1036</v>
+        <v>545</v>
       </c>
       <c r="C272" s="16"/>
-      <c r="D272" s="16"/>
+      <c r="D272" s="9" t="s">
+        <v>1038</v>
+      </c>
       <c r="E272" s="14"/>
       <c r="F272" s="14"/>
       <c r="G272" s="14"/>
@@ -17602,10 +17671,10 @@
     </row>
     <row r="273">
       <c r="A273" s="4" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C273" s="16"/>
       <c r="D273" s="16"/>
@@ -17616,13 +17685,15 @@
     </row>
     <row r="274">
       <c r="A274" s="4" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>549</v>
+        <v>1041</v>
       </c>
       <c r="C274" s="16"/>
-      <c r="D274" s="16"/>
+      <c r="D274" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="E274" s="14"/>
       <c r="F274" s="14"/>
       <c r="G274" s="14"/>
@@ -17630,14 +17701,14 @@
     </row>
     <row r="275">
       <c r="A275" s="4" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="C275" s="16"/>
       <c r="D275" s="9" t="s">
-        <v>78</v>
+        <v>1044</v>
       </c>
       <c r="E275" s="14"/>
       <c r="F275" s="14"/>
@@ -17646,14 +17717,12 @@
     </row>
     <row r="276">
       <c r="A276" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B276" s="5" t="s">
-        <v>1042</v>
-      </c>
+        <v>1045</v>
+      </c>
+      <c r="B276" s="5"/>
       <c r="C276" s="16"/>
       <c r="D276" s="9" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="E276" s="14"/>
       <c r="F276" s="14"/>
@@ -17662,13 +17731,13 @@
     </row>
     <row r="277">
       <c r="A277" s="4" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B277" s="5" t="s">
-        <v>641</v>
-      </c>
+        <v>1047</v>
+      </c>
+      <c r="B277" s="5"/>
       <c r="C277" s="16"/>
-      <c r="D277" s="16"/>
+      <c r="D277" s="9" t="s">
+        <v>1048</v>
+      </c>
       <c r="E277" s="14"/>
       <c r="F277" s="14"/>
       <c r="G277" s="14"/>
@@ -17676,14 +17745,12 @@
     </row>
     <row r="278">
       <c r="A278" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B278" s="5" t="s">
-        <v>641</v>
-      </c>
+        <v>1049</v>
+      </c>
+      <c r="B278" s="5"/>
       <c r="C278" s="16"/>
       <c r="D278" s="9" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="E278" s="14"/>
       <c r="F278" s="14"/>
@@ -17692,14 +17759,12 @@
     </row>
     <row r="279">
       <c r="A279" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>366</v>
-      </c>
+        <v>1051</v>
+      </c>
+      <c r="B279" s="5"/>
       <c r="C279" s="16"/>
       <c r="D279" s="9" t="s">
-        <v>1048</v>
+        <v>471</v>
       </c>
       <c r="E279" s="14"/>
       <c r="F279" s="14"/>
@@ -17708,13 +17773,13 @@
     </row>
     <row r="280">
       <c r="A280" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B280" s="5" t="s">
-        <v>314</v>
-      </c>
+        <v>1052</v>
+      </c>
+      <c r="B280" s="5"/>
       <c r="C280" s="16"/>
-      <c r="D280" s="16"/>
+      <c r="D280" s="9" t="s">
+        <v>473</v>
+      </c>
       <c r="E280" s="14"/>
       <c r="F280" s="14"/>
       <c r="G280" s="14"/>
@@ -17722,13 +17787,15 @@
     </row>
     <row r="281">
       <c r="A281" s="4" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>317</v>
+        <v>641</v>
       </c>
       <c r="C281" s="16"/>
-      <c r="D281" s="16"/>
+      <c r="D281" s="9" t="s">
+        <v>1054</v>
+      </c>
       <c r="E281" s="14"/>
       <c r="F281" s="14"/>
       <c r="G281" s="14"/>
@@ -17736,13 +17803,15 @@
     </row>
     <row r="282">
       <c r="A282" s="4" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>421</v>
+        <v>366</v>
       </c>
       <c r="C282" s="16"/>
-      <c r="D282" s="16"/>
+      <c r="D282" s="9" t="s">
+        <v>1056</v>
+      </c>
       <c r="E282" s="14"/>
       <c r="F282" s="14"/>
       <c r="G282" s="14"/>
@@ -17750,13 +17819,15 @@
     </row>
     <row r="283">
       <c r="A283" s="4" t="s">
-        <v>1051</v>
+        <v>131</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>90</v>
+        <v>314</v>
       </c>
       <c r="C283" s="16"/>
-      <c r="D283" s="16"/>
+      <c r="D283" s="9" t="s">
+        <v>1057</v>
+      </c>
       <c r="E283" s="14"/>
       <c r="F283" s="14"/>
       <c r="G283" s="14"/>
@@ -17764,14 +17835,14 @@
     </row>
     <row r="284">
       <c r="A284" s="4" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="C284" s="16"/>
       <c r="D284" s="9" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="E284" s="14"/>
       <c r="F284" s="14"/>
@@ -17780,13 +17851,15 @@
     </row>
     <row r="285">
       <c r="A285" s="4" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="C285" s="16"/>
-      <c r="D285" s="16"/>
+      <c r="D285" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="E285" s="14"/>
       <c r="F285" s="14"/>
       <c r="G285" s="14"/>
@@ -17794,14 +17867,14 @@
     </row>
     <row r="286">
       <c r="A286" s="4" t="s">
-        <v>445</v>
+        <v>1061</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>373</v>
+        <v>90</v>
       </c>
       <c r="C286" s="16"/>
       <c r="D286" s="9" t="s">
-        <v>487</v>
+        <v>1062</v>
       </c>
       <c r="E286" s="14"/>
       <c r="F286" s="14"/>
@@ -17810,14 +17883,14 @@
     </row>
     <row r="287">
       <c r="A287" s="4" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="C287" s="16"/>
       <c r="D287" s="9" t="s">
-        <v>497</v>
+        <v>1064</v>
       </c>
       <c r="E287" s="14"/>
       <c r="F287" s="14"/>
@@ -17826,14 +17899,14 @@
     </row>
     <row r="288">
       <c r="A288" s="4" t="s">
-        <v>1056</v>
+        <v>1065</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="C288" s="16"/>
       <c r="D288" s="9" t="s">
-        <v>1057</v>
+        <v>484</v>
       </c>
       <c r="E288" s="14"/>
       <c r="F288" s="14"/>
@@ -17842,14 +17915,14 @@
     </row>
     <row r="289">
       <c r="A289" s="4" t="s">
-        <v>1058</v>
+        <v>445</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>163</v>
+        <v>373</v>
       </c>
       <c r="C289" s="16"/>
       <c r="D289" s="9" t="s">
-        <v>1059</v>
+        <v>487</v>
       </c>
       <c r="E289" s="14"/>
       <c r="F289" s="14"/>
@@ -17858,14 +17931,14 @@
     </row>
     <row r="290">
       <c r="A290" s="4" t="s">
-        <v>119</v>
+        <v>1066</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>477</v>
+        <v>391</v>
       </c>
       <c r="C290" s="16"/>
       <c r="D290" s="9" t="s">
-        <v>1060</v>
+        <v>497</v>
       </c>
       <c r="E290" s="14"/>
       <c r="F290" s="14"/>
@@ -17874,13 +17947,15 @@
     </row>
     <row r="291">
       <c r="A291" s="4" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>1062</v>
+        <v>395</v>
       </c>
       <c r="C291" s="16"/>
-      <c r="D291" s="16"/>
+      <c r="D291" s="9" t="s">
+        <v>1068</v>
+      </c>
       <c r="E291" s="14"/>
       <c r="F291" s="14"/>
       <c r="G291" s="14"/>
@@ -17888,13 +17963,15 @@
     </row>
     <row r="292">
       <c r="A292" s="4" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>1064</v>
+        <v>163</v>
       </c>
       <c r="C292" s="16"/>
-      <c r="D292" s="16"/>
+      <c r="D292" s="9" t="s">
+        <v>1070</v>
+      </c>
       <c r="E292" s="14"/>
       <c r="F292" s="14"/>
       <c r="G292" s="14"/>
@@ -17902,13 +17979,13 @@
     </row>
     <row r="293">
       <c r="A293" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B293" s="5" t="s">
-        <v>1066</v>
-      </c>
+        <v>1071</v>
+      </c>
+      <c r="B293" s="5"/>
       <c r="C293" s="16"/>
-      <c r="D293" s="16"/>
+      <c r="D293" s="9" t="s">
+        <v>1072</v>
+      </c>
       <c r="E293" s="14"/>
       <c r="F293" s="14"/>
       <c r="G293" s="14"/>
@@ -17916,13 +17993,13 @@
     </row>
     <row r="294">
       <c r="A294" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B294" s="5" t="s">
-        <v>1068</v>
-      </c>
+        <v>1073</v>
+      </c>
+      <c r="B294" s="5"/>
       <c r="C294" s="16"/>
-      <c r="D294" s="16"/>
+      <c r="D294" s="9" t="s">
+        <v>1074</v>
+      </c>
       <c r="E294" s="14"/>
       <c r="F294" s="14"/>
       <c r="G294" s="14"/>
@@ -17930,14 +18007,14 @@
     </row>
     <row r="295">
       <c r="A295" s="4" t="s">
-        <v>280</v>
+        <v>119</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>1069</v>
+        <v>477</v>
       </c>
       <c r="C295" s="16"/>
       <c r="D295" s="9" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="E295" s="14"/>
       <c r="F295" s="14"/>
@@ -17946,10 +18023,10 @@
     </row>
     <row r="296">
       <c r="A296" s="4" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>407</v>
+        <v>1077</v>
       </c>
       <c r="C296" s="16"/>
       <c r="D296" s="16"/>
@@ -17960,15 +18037,13 @@
     </row>
     <row r="297">
       <c r="A297" s="4" t="s">
-        <v>470</v>
+        <v>1078</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="C297" s="16"/>
-      <c r="D297" s="9" t="s">
-        <v>1073</v>
-      </c>
+      <c r="D297" s="16"/>
       <c r="E297" s="14"/>
       <c r="F297" s="14"/>
       <c r="G297" s="14"/>
@@ -17976,13 +18051,13 @@
     </row>
     <row r="298">
       <c r="A298" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="B298" s="5" t="s">
-        <v>1074</v>
-      </c>
+        <v>1080</v>
+      </c>
+      <c r="B298" s="5"/>
       <c r="C298" s="16"/>
-      <c r="D298" s="16"/>
+      <c r="D298" s="9" t="s">
+        <v>1081</v>
+      </c>
       <c r="E298" s="14"/>
       <c r="F298" s="14"/>
       <c r="G298" s="14"/>
@@ -17990,10 +18065,10 @@
     </row>
     <row r="299">
       <c r="A299" s="4" t="s">
-        <v>1075</v>
+        <v>1082</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>1076</v>
+        <v>1083</v>
       </c>
       <c r="C299" s="16"/>
       <c r="D299" s="16"/>
@@ -18004,10 +18079,10 @@
     </row>
     <row r="300">
       <c r="A300" s="4" t="s">
-        <v>1077</v>
+        <v>1084</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="C300" s="16"/>
       <c r="D300" s="16"/>
@@ -18018,13 +18093,15 @@
     </row>
     <row r="301">
       <c r="A301" s="4" t="s">
-        <v>1079</v>
+        <v>280</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="C301" s="16"/>
-      <c r="D301" s="16"/>
+      <c r="D301" s="9" t="s">
+        <v>1087</v>
+      </c>
       <c r="E301" s="14"/>
       <c r="F301" s="14"/>
       <c r="G301" s="14"/>
@@ -18032,13 +18109,15 @@
     </row>
     <row r="302">
       <c r="A302" s="4" t="s">
-        <v>1081</v>
+        <v>470</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="C302" s="16"/>
-      <c r="D302" s="16"/>
+      <c r="D302" s="9" t="s">
+        <v>1088</v>
+      </c>
       <c r="E302" s="14"/>
       <c r="F302" s="14"/>
       <c r="G302" s="14"/>
@@ -18046,13 +18125,13 @@
     </row>
     <row r="303">
       <c r="A303" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="B303" s="5" t="s">
-        <v>1083</v>
-      </c>
+        <v>1089</v>
+      </c>
+      <c r="B303" s="5"/>
       <c r="C303" s="16"/>
-      <c r="D303" s="16"/>
+      <c r="D303" s="9" t="s">
+        <v>1090</v>
+      </c>
       <c r="E303" s="14"/>
       <c r="F303" s="14"/>
       <c r="G303" s="14"/>
@@ -18060,14 +18139,12 @@
     </row>
     <row r="304">
       <c r="A304" s="4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B304" s="5" t="s">
-        <v>1085</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="B304" s="5"/>
       <c r="C304" s="16"/>
       <c r="D304" s="9" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="E304" s="14"/>
       <c r="F304" s="14"/>
@@ -18076,13 +18153,13 @@
     </row>
     <row r="305">
       <c r="A305" s="4" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B305" s="5" t="s">
-        <v>368</v>
-      </c>
+        <v>1092</v>
+      </c>
+      <c r="B305" s="5"/>
       <c r="C305" s="16"/>
-      <c r="D305" s="16"/>
+      <c r="D305" s="9" t="s">
+        <v>1093</v>
+      </c>
       <c r="E305" s="14"/>
       <c r="F305" s="14"/>
       <c r="G305" s="14"/>
@@ -18090,14 +18167,14 @@
     </row>
     <row r="306">
       <c r="A306" s="4" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="C306" s="16"/>
       <c r="D306" s="9" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="E306" s="14"/>
       <c r="F306" s="14"/>
@@ -18106,14 +18183,12 @@
     </row>
     <row r="307">
       <c r="A307" s="4" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B307" s="5" t="s">
-        <v>408</v>
-      </c>
+        <v>1097</v>
+      </c>
+      <c r="B307" s="5"/>
       <c r="C307" s="16"/>
       <c r="D307" s="9" t="s">
-        <v>581</v>
+        <v>530</v>
       </c>
       <c r="E307" s="14"/>
       <c r="F307" s="14"/>
@@ -18122,14 +18197,12 @@
     </row>
     <row r="308">
       <c r="A308" s="4" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B308" s="5" t="s">
-        <v>960</v>
-      </c>
+        <v>1098</v>
+      </c>
+      <c r="B308" s="5"/>
       <c r="C308" s="16"/>
       <c r="D308" s="9" t="s">
-        <v>584</v>
+        <v>1099</v>
       </c>
       <c r="E308" s="14"/>
       <c r="F308" s="14"/>
@@ -18138,14 +18211,14 @@
     </row>
     <row r="309">
       <c r="A309" s="4" t="s">
-        <v>1093</v>
+        <v>474</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>963</v>
+        <v>1100</v>
       </c>
       <c r="C309" s="16"/>
       <c r="D309" s="9" t="s">
-        <v>1094</v>
+        <v>1101</v>
       </c>
       <c r="E309" s="14"/>
       <c r="F309" s="14"/>
@@ -18154,14 +18227,14 @@
     </row>
     <row r="310">
       <c r="A310" s="4" t="s">
-        <v>1095</v>
+        <v>1102</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="C310" s="16"/>
       <c r="D310" s="9" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="E310" s="14"/>
       <c r="F310" s="14"/>
@@ -18170,15 +18243,13 @@
     </row>
     <row r="311">
       <c r="A311" s="4" t="s">
-        <v>1098</v>
+        <v>1105</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>469</v>
+        <v>368</v>
       </c>
       <c r="C311" s="16"/>
-      <c r="D311" s="9" t="s">
-        <v>1099</v>
-      </c>
+      <c r="D311" s="16"/>
       <c r="E311" s="14"/>
       <c r="F311" s="14"/>
       <c r="G311" s="14"/>
@@ -18186,14 +18257,14 @@
     </row>
     <row r="312">
       <c r="A312" s="4" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>956</v>
+        <v>1107</v>
       </c>
       <c r="C312" s="16"/>
       <c r="D312" s="9" t="s">
-        <v>1101</v>
+        <v>1108</v>
       </c>
       <c r="E312" s="14"/>
       <c r="F312" s="14"/>
@@ -18202,14 +18273,14 @@
     </row>
     <row r="313">
       <c r="A313" s="4" t="s">
-        <v>287</v>
+        <v>1109</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>584</v>
+        <v>408</v>
       </c>
       <c r="C313" s="16"/>
       <c r="D313" s="9" t="s">
-        <v>1102</v>
+        <v>581</v>
       </c>
       <c r="E313" s="14"/>
       <c r="F313" s="14"/>
@@ -18218,13 +18289,15 @@
     </row>
     <row r="314">
       <c r="A314" s="4" t="s">
-        <v>516</v>
+        <v>1110</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="C314" s="16"/>
-      <c r="D314" s="16"/>
+      <c r="D314" s="9" t="s">
+        <v>584</v>
+      </c>
       <c r="E314" s="14"/>
       <c r="F314" s="14"/>
       <c r="G314" s="14"/>
@@ -18232,13 +18305,15 @@
     </row>
     <row r="315">
       <c r="A315" s="4" t="s">
-        <v>519</v>
+        <v>1111</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C315" s="16"/>
-      <c r="D315" s="16"/>
+      <c r="D315" s="9" t="s">
+        <v>1112</v>
+      </c>
       <c r="E315" s="14"/>
       <c r="F315" s="14"/>
       <c r="G315" s="14"/>
@@ -18246,13 +18321,15 @@
     </row>
     <row r="316">
       <c r="A316" s="4" t="s">
-        <v>522</v>
+        <v>1113</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>981</v>
+        <v>1114</v>
       </c>
       <c r="C316" s="16"/>
-      <c r="D316" s="16"/>
+      <c r="D316" s="9" t="s">
+        <v>1115</v>
+      </c>
       <c r="E316" s="14"/>
       <c r="F316" s="14"/>
       <c r="G316" s="14"/>
@@ -18260,14 +18337,14 @@
     </row>
     <row r="317">
       <c r="A317" s="4" t="s">
-        <v>290</v>
+        <v>1116</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>982</v>
+        <v>469</v>
       </c>
       <c r="C317" s="16"/>
       <c r="D317" s="9" t="s">
-        <v>292</v>
+        <v>1117</v>
       </c>
       <c r="E317" s="14"/>
       <c r="F317" s="14"/>
@@ -18276,14 +18353,14 @@
     </row>
     <row r="318">
       <c r="A318" s="4" t="s">
-        <v>1103</v>
+        <v>1118</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>1086</v>
+        <v>956</v>
       </c>
       <c r="C318" s="16"/>
       <c r="D318" s="9" t="s">
-        <v>1104</v>
+        <v>1119</v>
       </c>
       <c r="E318" s="14"/>
       <c r="F318" s="14"/>
@@ -18292,12 +18369,12 @@
     </row>
     <row r="319">
       <c r="A319" s="4" t="s">
-        <v>1105</v>
+        <v>1120</v>
       </c>
       <c r="B319" s="5"/>
       <c r="C319" s="16"/>
       <c r="D319" s="9" t="s">
-        <v>1106</v>
+        <v>1121</v>
       </c>
       <c r="E319" s="14"/>
       <c r="F319" s="14"/>
@@ -18306,13 +18383,15 @@
     </row>
     <row r="320">
       <c r="A320" s="4" t="s">
-        <v>1107</v>
+        <v>1122</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>1108</v>
+        <v>1123</v>
       </c>
       <c r="C320" s="16"/>
-      <c r="D320" s="16"/>
+      <c r="D320" s="9" t="s">
+        <v>653</v>
+      </c>
       <c r="E320" s="14"/>
       <c r="F320" s="14"/>
       <c r="G320" s="14"/>
@@ -18320,13 +18399,13 @@
     </row>
     <row r="321">
       <c r="A321" s="4" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B321" s="5" t="s">
-        <v>975</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="B321" s="5"/>
       <c r="C321" s="16"/>
-      <c r="D321" s="16"/>
+      <c r="D321" s="9" t="s">
+        <v>1125</v>
+      </c>
       <c r="E321" s="14"/>
       <c r="F321" s="14"/>
       <c r="G321" s="14"/>
@@ -18334,13 +18413,13 @@
     </row>
     <row r="322">
       <c r="A322" s="4" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B322" s="5" t="s">
-        <v>1111</v>
-      </c>
+        <v>1126</v>
+      </c>
+      <c r="B322" s="5"/>
       <c r="C322" s="16"/>
-      <c r="D322" s="16"/>
+      <c r="D322" s="9" t="s">
+        <v>1127</v>
+      </c>
       <c r="E322" s="14"/>
       <c r="F322" s="14"/>
       <c r="G322" s="14"/>
@@ -18348,13 +18427,13 @@
     </row>
     <row r="323">
       <c r="A323" s="4" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B323" s="5" t="s">
-        <v>1113</v>
-      </c>
+        <v>1128</v>
+      </c>
+      <c r="B323" s="5"/>
       <c r="C323" s="16"/>
-      <c r="D323" s="16"/>
+      <c r="D323" s="9" t="s">
+        <v>1129</v>
+      </c>
       <c r="E323" s="14"/>
       <c r="F323" s="14"/>
       <c r="G323" s="14"/>
@@ -18362,13 +18441,13 @@
     </row>
     <row r="324">
       <c r="A324" s="4" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>984</v>
-      </c>
+        <v>1130</v>
+      </c>
+      <c r="B324" s="5"/>
       <c r="C324" s="16"/>
-      <c r="D324" s="16"/>
+      <c r="D324" s="9" t="s">
+        <v>1131</v>
+      </c>
       <c r="E324" s="14"/>
       <c r="F324" s="14"/>
       <c r="G324" s="14"/>
@@ -18376,13 +18455,13 @@
     </row>
     <row r="325">
       <c r="A325" s="4" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B325" s="5" t="s">
-        <v>1116</v>
-      </c>
+        <v>1132</v>
+      </c>
+      <c r="B325" s="5"/>
       <c r="C325" s="16"/>
-      <c r="D325" s="16"/>
+      <c r="D325" s="9" t="s">
+        <v>1133</v>
+      </c>
       <c r="E325" s="14"/>
       <c r="F325" s="14"/>
       <c r="G325" s="14"/>
@@ -18390,15 +18469,12 @@
     </row>
     <row r="326">
       <c r="A326" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>1117</v>
-      </c>
+        <v>1134</v>
+      </c>
+      <c r="B326" s="5"/>
       <c r="C326" s="16"/>
-      <c r="D326" s="9" t="str">
-        <f t="shared" ref="D326:D338" si="14">DEC2HEX(HEX2DEC(B326) + 28)</f>
-        <v>276</v>
+      <c r="D326" s="9" t="s">
+        <v>1135</v>
       </c>
       <c r="E326" s="14"/>
       <c r="F326" s="14"/>
@@ -18407,15 +18483,12 @@
     </row>
     <row r="327">
       <c r="A327" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B327" s="5" t="s">
-        <v>1118</v>
-      </c>
+        <v>1136</v>
+      </c>
+      <c r="B327" s="5"/>
       <c r="C327" s="16"/>
-      <c r="D327" s="9" t="str">
-        <f t="shared" si="14"/>
-        <v>277</v>
+      <c r="D327" s="9" t="s">
+        <v>1137</v>
       </c>
       <c r="E327" s="14"/>
       <c r="F327" s="14"/>
@@ -18424,15 +18497,14 @@
     </row>
     <row r="328">
       <c r="A328" s="4" t="s">
-        <v>123</v>
+        <v>287</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>1119</v>
+        <v>584</v>
       </c>
       <c r="C328" s="16"/>
-      <c r="D328" s="16" t="str">
-        <f t="shared" si="14"/>
-        <v>278</v>
+      <c r="D328" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="E328" s="14"/>
       <c r="F328" s="14"/>
@@ -18441,66 +18513,54 @@
     </row>
     <row r="329">
       <c r="A329" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B329" s="5" t="s">
-        <v>1120</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="B329" s="5"/>
       <c r="C329" s="16"/>
-      <c r="D329" s="16" t="str">
-        <f t="shared" si="14"/>
-        <v>279</v>
+      <c r="D329" s="9" t="s">
+        <v>1139</v>
       </c>
       <c r="E329" s="14"/>
       <c r="F329" s="14"/>
-      <c r="G329" s="20"/>
+      <c r="G329" s="14"/>
       <c r="H329" s="14"/>
     </row>
     <row r="330">
       <c r="A330" s="4" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B330" s="5" t="s">
-        <v>1122</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="B330" s="5"/>
       <c r="C330" s="16"/>
-      <c r="D330" s="16" t="str">
-        <f t="shared" si="14"/>
-        <v>27A</v>
+      <c r="D330" s="9" t="s">
+        <v>1140</v>
       </c>
       <c r="E330" s="14"/>
       <c r="F330" s="14"/>
-      <c r="G330" s="20"/>
+      <c r="G330" s="14"/>
       <c r="H330" s="14"/>
     </row>
     <row r="331">
       <c r="A331" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B331" s="5" t="s">
-        <v>1123</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="B331" s="5"/>
       <c r="C331" s="16"/>
-      <c r="D331" s="9" t="str">
-        <f t="shared" si="14"/>
-        <v>27B</v>
+      <c r="D331" s="9" t="s">
+        <v>1141</v>
       </c>
       <c r="E331" s="14"/>
       <c r="F331" s="14"/>
-      <c r="G331" s="20"/>
+      <c r="G331" s="14"/>
       <c r="H331" s="14"/>
     </row>
     <row r="332">
       <c r="A332" s="4" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B332" s="5" t="s">
-        <v>1125</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B332" s="5"/>
       <c r="C332" s="16"/>
-      <c r="D332" s="9" t="str">
-        <f t="shared" si="14"/>
-        <v>27C</v>
+      <c r="D332" s="9" t="s">
+        <v>1142</v>
       </c>
       <c r="E332" s="14"/>
       <c r="F332" s="14"/>
@@ -18509,15 +18569,12 @@
     </row>
     <row r="333">
       <c r="A333" s="4" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B333" s="5" t="s">
-        <v>1127</v>
-      </c>
+        <v>1143</v>
+      </c>
+      <c r="B333" s="5"/>
       <c r="C333" s="16"/>
-      <c r="D333" s="16" t="str">
-        <f t="shared" si="14"/>
-        <v>27D</v>
+      <c r="D333" s="9" t="s">
+        <v>1144</v>
       </c>
       <c r="E333" s="14"/>
       <c r="F333" s="14"/>
@@ -18526,15 +18583,12 @@
     </row>
     <row r="334">
       <c r="A334" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B334" s="5" t="s">
-        <v>1129</v>
-      </c>
+        <v>1145</v>
+      </c>
+      <c r="B334" s="5"/>
       <c r="C334" s="16"/>
-      <c r="D334" s="16" t="str">
-        <f t="shared" si="14"/>
-        <v>27E</v>
+      <c r="D334" s="9" t="s">
+        <v>1146</v>
       </c>
       <c r="E334" s="14"/>
       <c r="F334" s="14"/>
@@ -18543,15 +18597,15 @@
     </row>
     <row r="335">
       <c r="A335" s="4" t="s">
-        <v>1130</v>
+        <v>118</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="C335" s="16"/>
-      <c r="D335" s="16" t="str">
-        <f t="shared" si="14"/>
-        <v>27F</v>
+      <c r="D335" s="9" t="str">
+        <f t="shared" ref="D335:D347" si="14">DEC2HEX(HEX2DEC(B335) + 28)</f>
+        <v>276</v>
       </c>
       <c r="E335" s="14"/>
       <c r="F335" s="14"/>
@@ -18560,15 +18614,15 @@
     </row>
     <row r="336">
       <c r="A336" s="4" t="s">
-        <v>1132</v>
+        <v>121</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="C336" s="16"/>
       <c r="D336" s="9" t="str">
         <f t="shared" si="14"/>
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E336" s="14"/>
       <c r="F336" s="14"/>
@@ -18577,15 +18631,15 @@
     </row>
     <row r="337">
       <c r="A337" s="4" t="s">
-        <v>1134</v>
+        <v>123</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>1046</v>
+        <v>1131</v>
       </c>
       <c r="C337" s="16"/>
-      <c r="D337" s="9" t="str">
+      <c r="D337" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E337" s="14"/>
       <c r="F337" s="14"/>
@@ -18594,63 +18648,66 @@
     </row>
     <row r="338">
       <c r="A338" s="4" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>1048</v>
+        <v>1147</v>
       </c>
       <c r="C338" s="16"/>
       <c r="D338" s="16" t="str">
         <f t="shared" si="14"/>
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E338" s="14"/>
       <c r="F338" s="14"/>
-      <c r="G338" s="14"/>
+      <c r="G338" s="20"/>
       <c r="H338" s="14"/>
     </row>
     <row r="339">
       <c r="A339" s="4" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B339" s="5"/>
+        <v>1148</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>1133</v>
+      </c>
       <c r="C339" s="16"/>
-      <c r="D339" s="9" t="s">
-        <v>612</v>
+      <c r="D339" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>27A</v>
       </c>
       <c r="E339" s="14"/>
       <c r="F339" s="14"/>
-      <c r="G339" s="14"/>
+      <c r="G339" s="20"/>
       <c r="H339" s="14"/>
     </row>
     <row r="340">
       <c r="A340" s="4" t="s">
-        <v>1136</v>
+        <v>273</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C340" s="16"/>
-      <c r="D340" s="16" t="str">
-        <f t="shared" ref="D340:D348" si="15">DEC2HEX(HEX2DEC(B340) + 28)</f>
-        <v>288</v>
+      <c r="D340" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>27B</v>
       </c>
       <c r="E340" s="14"/>
       <c r="F340" s="14"/>
-      <c r="G340" s="14"/>
+      <c r="G340" s="20"/>
       <c r="H340" s="14"/>
     </row>
     <row r="341">
       <c r="A341" s="4" t="s">
-        <v>1138</v>
+        <v>1149</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C341" s="16"/>
-      <c r="D341" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>289</v>
+      <c r="D341" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>27C</v>
       </c>
       <c r="E341" s="14"/>
       <c r="F341" s="14"/>
@@ -18659,15 +18716,15 @@
     </row>
     <row r="342">
       <c r="A342" s="4" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>1102</v>
+        <v>1151</v>
       </c>
       <c r="C342" s="16"/>
-      <c r="D342" s="9" t="str">
-        <f t="shared" si="15"/>
-        <v>28A</v>
+      <c r="D342" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>27D</v>
       </c>
       <c r="E342" s="14"/>
       <c r="F342" s="14"/>
@@ -18676,15 +18733,15 @@
     </row>
     <row r="343">
       <c r="A343" s="4" t="s">
-        <v>1141</v>
+        <v>1152</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>1142</v>
+        <v>1153</v>
       </c>
       <c r="C343" s="16"/>
-      <c r="D343" s="9" t="str">
-        <f t="shared" si="15"/>
-        <v>28B</v>
+      <c r="D343" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>27E</v>
       </c>
       <c r="E343" s="14"/>
       <c r="F343" s="14"/>
@@ -18693,15 +18750,15 @@
     </row>
     <row r="344">
       <c r="A344" s="4" t="s">
-        <v>1143</v>
+        <v>1154</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>1144</v>
+        <v>1155</v>
       </c>
       <c r="C344" s="16"/>
       <c r="D344" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>28C</v>
+        <f t="shared" si="14"/>
+        <v>27F</v>
       </c>
       <c r="E344" s="14"/>
       <c r="F344" s="14"/>
@@ -18710,15 +18767,15 @@
     </row>
     <row r="345">
       <c r="A345" s="4" t="s">
-        <v>1145</v>
+        <v>1156</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>1146</v>
+        <v>1157</v>
       </c>
       <c r="C345" s="16"/>
-      <c r="D345" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>28D</v>
+      <c r="D345" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>280</v>
       </c>
       <c r="E345" s="14"/>
       <c r="F345" s="14"/>
@@ -18727,15 +18784,15 @@
     </row>
     <row r="346">
       <c r="A346" s="4" t="s">
-        <v>1147</v>
+        <v>1158</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1148</v>
+        <v>1054</v>
       </c>
       <c r="C346" s="16"/>
-      <c r="D346" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>28E</v>
+      <c r="D346" s="9" t="str">
+        <f t="shared" si="14"/>
+        <v>282</v>
       </c>
       <c r="E346" s="14"/>
       <c r="F346" s="14"/>
@@ -18744,15 +18801,15 @@
     </row>
     <row r="347">
       <c r="A347" s="4" t="s">
-        <v>1149</v>
+        <v>150</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>1104</v>
+        <v>1056</v>
       </c>
       <c r="C347" s="16"/>
-      <c r="D347" s="9" t="str">
-        <f t="shared" si="15"/>
-        <v>28F</v>
+      <c r="D347" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>283</v>
       </c>
       <c r="E347" s="14"/>
       <c r="F347" s="14"/>
@@ -18761,15 +18818,12 @@
     </row>
     <row r="348">
       <c r="A348" s="4" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B348" s="5" t="s">
-        <v>1106</v>
-      </c>
+        <v>1159</v>
+      </c>
+      <c r="B348" s="5"/>
       <c r="C348" s="16"/>
-      <c r="D348" s="9" t="str">
-        <f t="shared" si="15"/>
-        <v>290</v>
+      <c r="D348" s="9" t="s">
+        <v>612</v>
       </c>
       <c r="E348" s="14"/>
       <c r="F348" s="14"/>
@@ -18778,14 +18832,15 @@
     </row>
     <row r="349">
       <c r="A349" s="4" t="s">
-        <v>1151</v>
+        <v>1160</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="C349" s="16"/>
-      <c r="D349" s="9" t="s">
-        <v>1153</v>
+      <c r="D349" s="16" t="str">
+        <f t="shared" ref="D349:D357" si="15">DEC2HEX(HEX2DEC(B349) + 28)</f>
+        <v>288</v>
       </c>
       <c r="E349" s="14"/>
       <c r="F349" s="14"/>
@@ -18794,13 +18849,16 @@
     </row>
     <row r="350">
       <c r="A350" s="4" t="s">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>529</v>
+        <v>1163</v>
       </c>
       <c r="C350" s="16"/>
-      <c r="D350" s="16"/>
+      <c r="D350" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v>289</v>
+      </c>
       <c r="E350" s="14"/>
       <c r="F350" s="14"/>
       <c r="G350" s="14"/>
@@ -18808,13 +18866,16 @@
     </row>
     <row r="351">
       <c r="A351" s="4" t="s">
-        <v>1155</v>
+        <v>1164</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>1156</v>
+        <v>1138</v>
       </c>
       <c r="C351" s="16"/>
-      <c r="D351" s="16"/>
+      <c r="D351" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>28A</v>
+      </c>
       <c r="E351" s="14"/>
       <c r="F351" s="14"/>
       <c r="G351" s="14"/>
@@ -18822,13 +18883,16 @@
     </row>
     <row r="352">
       <c r="A352" s="4" t="s">
-        <v>1157</v>
+        <v>1165</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>1156</v>
+        <v>1139</v>
       </c>
       <c r="C352" s="16"/>
-      <c r="D352" s="16"/>
+      <c r="D352" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>28B</v>
+      </c>
       <c r="E352" s="14"/>
       <c r="F352" s="14"/>
       <c r="G352" s="14"/>
@@ -18836,14 +18900,15 @@
     </row>
     <row r="353">
       <c r="A353" s="4" t="s">
-        <v>1158</v>
+        <v>1166</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>1159</v>
+        <v>1140</v>
       </c>
       <c r="C353" s="16"/>
-      <c r="D353" s="9" t="s">
-        <v>1160</v>
+      <c r="D353" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v>28C</v>
       </c>
       <c r="E353" s="14"/>
       <c r="F353" s="14"/>
@@ -18852,13 +18917,16 @@
     </row>
     <row r="354">
       <c r="A354" s="4" t="s">
-        <v>1161</v>
+        <v>1167</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>1162</v>
+        <v>1141</v>
       </c>
       <c r="C354" s="16"/>
-      <c r="D354" s="16"/>
+      <c r="D354" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v>28D</v>
+      </c>
       <c r="E354" s="14"/>
       <c r="F354" s="14"/>
       <c r="G354" s="14"/>
@@ -18866,13 +18934,16 @@
     </row>
     <row r="355">
       <c r="A355" s="4" t="s">
-        <v>1163</v>
+        <v>1168</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>591</v>
+        <v>1142</v>
       </c>
       <c r="C355" s="16"/>
-      <c r="D355" s="16"/>
+      <c r="D355" s="16" t="str">
+        <f t="shared" si="15"/>
+        <v>28E</v>
+      </c>
       <c r="E355" s="14"/>
       <c r="F355" s="14"/>
       <c r="G355" s="14"/>
@@ -18880,13 +18951,16 @@
     </row>
     <row r="356">
       <c r="A356" s="4" t="s">
-        <v>1164</v>
+        <v>1169</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>593</v>
+        <v>1144</v>
       </c>
       <c r="C356" s="16"/>
-      <c r="D356" s="16"/>
+      <c r="D356" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>28F</v>
+      </c>
       <c r="E356" s="14"/>
       <c r="F356" s="14"/>
       <c r="G356" s="14"/>
@@ -18894,14 +18968,15 @@
     </row>
     <row r="357">
       <c r="A357" s="4" t="s">
-        <v>1165</v>
+        <v>1170</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>595</v>
+        <v>1146</v>
       </c>
       <c r="C357" s="16"/>
-      <c r="D357" s="9" t="s">
-        <v>1166</v>
+      <c r="D357" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>290</v>
       </c>
       <c r="E357" s="14"/>
       <c r="F357" s="14"/>
@@ -18910,13 +18985,15 @@
     </row>
     <row r="358">
       <c r="A358" s="4" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="C358" s="16"/>
-      <c r="D358" s="16"/>
+      <c r="D358" s="9" t="s">
+        <v>1173</v>
+      </c>
       <c r="E358" s="14"/>
       <c r="F358" s="14"/>
       <c r="G358" s="14"/>
@@ -18924,10 +19001,10 @@
     </row>
     <row r="359">
       <c r="A359" s="4" t="s">
-        <v>1169</v>
+        <v>1174</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>1170</v>
+        <v>529</v>
       </c>
       <c r="C359" s="16"/>
       <c r="D359" s="16"/>
@@ -18938,10 +19015,10 @@
     </row>
     <row r="360">
       <c r="A360" s="4" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>541</v>
+        <v>1176</v>
       </c>
       <c r="C360" s="16"/>
       <c r="D360" s="16"/>
@@ -18952,10 +19029,10 @@
     </row>
     <row r="361">
       <c r="A361" s="4" t="s">
-        <v>1172</v>
+        <v>1177</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>543</v>
+        <v>1176</v>
       </c>
       <c r="C361" s="16"/>
       <c r="D361" s="16"/>
@@ -18966,13 +19043,15 @@
     </row>
     <row r="362">
       <c r="A362" s="4" t="s">
-        <v>1173</v>
+        <v>1178</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>541</v>
+        <v>1179</v>
       </c>
       <c r="C362" s="16"/>
-      <c r="D362" s="16"/>
+      <c r="D362" s="9" t="s">
+        <v>1180</v>
+      </c>
       <c r="E362" s="14"/>
       <c r="F362" s="14"/>
       <c r="G362" s="14"/>
@@ -18980,10 +19059,10 @@
     </row>
     <row r="363">
       <c r="A363" s="4" t="s">
-        <v>1174</v>
+        <v>1181</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>1175</v>
+        <v>1182</v>
       </c>
       <c r="C363" s="16"/>
       <c r="D363" s="16"/>
@@ -18994,10 +19073,10 @@
     </row>
     <row r="364">
       <c r="A364" s="4" t="s">
-        <v>1176</v>
+        <v>1183</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>1177</v>
+        <v>591</v>
       </c>
       <c r="C364" s="16"/>
       <c r="D364" s="16"/>
@@ -19008,10 +19087,10 @@
     </row>
     <row r="365">
       <c r="A365" s="4" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>1179</v>
+        <v>593</v>
       </c>
       <c r="C365" s="16"/>
       <c r="D365" s="16"/>
@@ -19022,13 +19101,15 @@
     </row>
     <row r="366">
       <c r="A366" s="4" t="s">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>545</v>
+        <v>595</v>
       </c>
       <c r="C366" s="16"/>
-      <c r="D366" s="16"/>
+      <c r="D366" s="9" t="s">
+        <v>1186</v>
+      </c>
       <c r="E366" s="14"/>
       <c r="F366" s="14"/>
       <c r="G366" s="14"/>
@@ -19036,18 +19117,13 @@
     </row>
     <row r="367">
       <c r="A367" s="4" t="s">
-        <v>1181</v>
+        <v>1187</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C367" s="5" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D367" s="16" t="str">
-        <f t="shared" ref="D367:D371" si="16">DEC2HEX(HEX2DEC(C367)+34)</f>
-        <v>2BA</v>
-      </c>
+        <v>1188</v>
+      </c>
+      <c r="C367" s="16"/>
+      <c r="D367" s="16"/>
       <c r="E367" s="14"/>
       <c r="F367" s="14"/>
       <c r="G367" s="14"/>
@@ -19055,18 +19131,13 @@
     </row>
     <row r="368">
       <c r="A368" s="4" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C368" s="5" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D368" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>2BD</v>
-      </c>
+        <v>1190</v>
+      </c>
+      <c r="C368" s="16"/>
+      <c r="D368" s="16"/>
       <c r="E368" s="14"/>
       <c r="F368" s="14"/>
       <c r="G368" s="14"/>
@@ -19074,18 +19145,13 @@
     </row>
     <row r="369">
       <c r="A369" s="4" t="s">
-        <v>1185</v>
+        <v>1191</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="C369" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="D369" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>2BE</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="C369" s="16"/>
+      <c r="D369" s="16"/>
       <c r="E369" s="14"/>
       <c r="F369" s="14"/>
       <c r="G369" s="14"/>
@@ -19093,18 +19159,13 @@
     </row>
     <row r="370">
       <c r="A370" s="4" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="C370" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="D370" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>2BF</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="C370" s="16"/>
+      <c r="D370" s="16"/>
       <c r="E370" s="14"/>
       <c r="F370" s="14"/>
       <c r="G370" s="14"/>
@@ -19112,18 +19173,13 @@
     </row>
     <row r="371">
       <c r="A371" s="4" t="s">
-        <v>1187</v>
+        <v>1193</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C371" s="5" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D371" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>2C0</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="C371" s="16"/>
+      <c r="D371" s="16"/>
       <c r="E371" s="14"/>
       <c r="F371" s="14"/>
       <c r="G371" s="14"/>
@@ -19131,10 +19187,10 @@
     </row>
     <row r="372">
       <c r="A372" s="4" t="s">
-        <v>1189</v>
+        <v>1194</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>1188</v>
+        <v>1195</v>
       </c>
       <c r="C372" s="16"/>
       <c r="D372" s="16"/>
@@ -19145,10 +19201,10 @@
     </row>
     <row r="373">
       <c r="A373" s="4" t="s">
-        <v>1190</v>
+        <v>1196</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>1191</v>
+        <v>1197</v>
       </c>
       <c r="C373" s="16"/>
       <c r="D373" s="16"/>
@@ -19159,10 +19215,10 @@
     </row>
     <row r="374">
       <c r="A374" s="4" t="s">
-        <v>439</v>
+        <v>1198</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>1192</v>
+        <v>1199</v>
       </c>
       <c r="C374" s="16"/>
       <c r="D374" s="16"/>
@@ -19173,10 +19229,10 @@
     </row>
     <row r="375">
       <c r="A375" s="4" t="s">
-        <v>1193</v>
+        <v>1200</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>1194</v>
+        <v>545</v>
       </c>
       <c r="C375" s="16"/>
       <c r="D375" s="16"/>
@@ -19187,13 +19243,18 @@
     </row>
     <row r="376">
       <c r="A376" s="4" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C376" s="16"/>
-      <c r="D376" s="16"/>
+        <v>1202</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D376" s="16" t="str">
+        <f t="shared" ref="D376:D380" si="16">DEC2HEX(HEX2DEC(C376)+34)</f>
+        <v>2BA</v>
+      </c>
       <c r="E376" s="14"/>
       <c r="F376" s="14"/>
       <c r="G376" s="14"/>
@@ -19201,13 +19262,18 @@
     </row>
     <row r="377">
       <c r="A377" s="4" t="s">
-        <v>1196</v>
+        <v>1203</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C377" s="16"/>
-      <c r="D377" s="16"/>
+        <v>1204</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D377" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>2BD</v>
+      </c>
       <c r="E377" s="14"/>
       <c r="F377" s="14"/>
       <c r="G377" s="14"/>
@@ -19215,13 +19281,18 @@
     </row>
     <row r="378">
       <c r="A378" s="4" t="s">
-        <v>1197</v>
+        <v>1205</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C378" s="16"/>
-      <c r="D378" s="16"/>
+        <v>637</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="D378" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>2BE</v>
+      </c>
       <c r="E378" s="14"/>
       <c r="F378" s="14"/>
       <c r="G378" s="14"/>
@@ -19229,13 +19300,18 @@
     </row>
     <row r="379">
       <c r="A379" s="4" t="s">
-        <v>1199</v>
+        <v>1206</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C379" s="16"/>
-      <c r="D379" s="16"/>
+        <v>621</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="D379" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>2BF</v>
+      </c>
       <c r="E379" s="14"/>
       <c r="F379" s="14"/>
       <c r="G379" s="14"/>
@@ -19243,14 +19319,17 @@
     </row>
     <row r="380">
       <c r="A380" s="4" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C380" s="16"/>
-      <c r="D380" s="9" t="s">
-        <v>1203</v>
+        <v>1208</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D380" s="16" t="str">
+        <f t="shared" si="16"/>
+        <v>2C0</v>
       </c>
       <c r="E380" s="14"/>
       <c r="F380" s="14"/>
@@ -19259,10 +19338,10 @@
     </row>
     <row r="381">
       <c r="A381" s="4" t="s">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="C381" s="16"/>
       <c r="D381" s="16"/>
@@ -19273,10 +19352,10 @@
     </row>
     <row r="382">
       <c r="A382" s="4" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="C382" s="16"/>
       <c r="D382" s="16"/>
@@ -19287,10 +19366,10 @@
     </row>
     <row r="383">
       <c r="A383" s="4" t="s">
-        <v>1208</v>
+        <v>439</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>78</v>
+        <v>1212</v>
       </c>
       <c r="C383" s="16"/>
       <c r="D383" s="16"/>
@@ -19301,10 +19380,10 @@
     </row>
     <row r="384">
       <c r="A384" s="4" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>1043</v>
+        <v>1214</v>
       </c>
       <c r="C384" s="16"/>
       <c r="D384" s="16"/>
@@ -19315,15 +19394,13 @@
     </row>
     <row r="385">
       <c r="A385" s="4" t="s">
-        <v>1210</v>
+        <v>1215</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>1211</v>
+        <v>1026</v>
       </c>
       <c r="C385" s="16"/>
-      <c r="D385" s="9" t="s">
-        <v>1212</v>
-      </c>
+      <c r="D385" s="16"/>
       <c r="E385" s="14"/>
       <c r="F385" s="14"/>
       <c r="G385" s="14"/>
@@ -19331,15 +19408,13 @@
     </row>
     <row r="386">
       <c r="A386" s="4" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>1214</v>
+        <v>1028</v>
       </c>
       <c r="C386" s="16"/>
-      <c r="D386" s="9" t="s">
-        <v>1215</v>
-      </c>
+      <c r="D386" s="16"/>
       <c r="E386" s="14"/>
       <c r="F386" s="14"/>
       <c r="G386" s="14"/>
@@ -19347,10 +19422,10 @@
     </row>
     <row r="387">
       <c r="A387" s="4" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>475</v>
+        <v>1031</v>
       </c>
       <c r="C387" s="16"/>
       <c r="D387" s="16"/>
@@ -19361,10 +19436,10 @@
     </row>
     <row r="388">
       <c r="A388" s="4" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>473</v>
+        <v>1036</v>
       </c>
       <c r="C388" s="16"/>
       <c r="D388" s="16"/>
@@ -19375,14 +19450,14 @@
     </row>
     <row r="389">
       <c r="A389" s="4" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C389" s="16"/>
       <c r="D389" s="9" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="E389" s="14"/>
       <c r="F389" s="14"/>
@@ -19391,10 +19466,10 @@
     </row>
     <row r="390">
       <c r="A390" s="4" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>79</v>
+        <v>1223</v>
       </c>
       <c r="C390" s="16"/>
       <c r="D390" s="16"/>
@@ -19405,10 +19480,10 @@
     </row>
     <row r="391">
       <c r="A391" s="4" t="s">
-        <v>89</v>
+        <v>1224</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>1053</v>
+        <v>1225</v>
       </c>
       <c r="C391" s="16"/>
       <c r="D391" s="16"/>
@@ -19419,15 +19494,13 @@
     </row>
     <row r="392">
       <c r="A392" s="4" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>487</v>
+        <v>78</v>
       </c>
       <c r="C392" s="16"/>
-      <c r="D392" s="9" t="s">
-        <v>1223</v>
-      </c>
+      <c r="D392" s="16"/>
       <c r="E392" s="14"/>
       <c r="F392" s="14"/>
       <c r="G392" s="14"/>
@@ -19435,13 +19508,13 @@
     </row>
     <row r="393">
       <c r="A393" s="4" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B393" s="5"/>
+        <v>1227</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>1044</v>
+      </c>
       <c r="C393" s="16"/>
-      <c r="D393" s="9" t="s">
-        <v>1225</v>
-      </c>
+      <c r="D393" s="16"/>
       <c r="E393" s="14"/>
       <c r="F393" s="14"/>
       <c r="G393" s="14"/>
@@ -19449,13 +19522,15 @@
     </row>
     <row r="394">
       <c r="A394" s="4" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>90</v>
+        <v>1046</v>
       </c>
       <c r="C394" s="16"/>
-      <c r="D394" s="16"/>
+      <c r="D394" s="9" t="s">
+        <v>1229</v>
+      </c>
       <c r="E394" s="14"/>
       <c r="F394" s="14"/>
       <c r="G394" s="14"/>
@@ -19463,13 +19538,15 @@
     </row>
     <row r="395">
       <c r="A395" s="4" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>484</v>
+        <v>1048</v>
       </c>
       <c r="C395" s="16"/>
-      <c r="D395" s="16"/>
+      <c r="D395" s="9" t="s">
+        <v>1231</v>
+      </c>
       <c r="E395" s="14"/>
       <c r="F395" s="14"/>
       <c r="G395" s="14"/>
@@ -19477,10 +19554,10 @@
     </row>
     <row r="396">
       <c r="A396" s="4" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="C396" s="16"/>
       <c r="D396" s="16"/>
@@ -19491,10 +19568,10 @@
     </row>
     <row r="397">
       <c r="A397" s="4" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="C397" s="16"/>
       <c r="D397" s="16"/>
@@ -19505,17 +19582,14 @@
     </row>
     <row r="398">
       <c r="A398" s="4" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C398" s="5" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D398" s="16" t="str">
-        <f t="shared" ref="D398:D399" si="17">DEC2HEX(HEX2DEC(C398)+36)</f>
-        <v>2DB</v>
+        <v>1235</v>
+      </c>
+      <c r="C398" s="16"/>
+      <c r="D398" s="9" t="s">
+        <v>1236</v>
       </c>
       <c r="E398" s="14"/>
       <c r="F398" s="14"/>
@@ -19524,18 +19598,13 @@
     </row>
     <row r="399">
       <c r="A399" s="4" t="s">
-        <v>313</v>
+        <v>1237</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C399" s="5" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D399" s="16" t="str">
-        <f t="shared" si="17"/>
-        <v>2DC</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C399" s="16"/>
+      <c r="D399" s="16"/>
       <c r="E399" s="14"/>
       <c r="F399" s="14"/>
       <c r="G399" s="14"/>
@@ -19543,10 +19612,10 @@
     </row>
     <row r="400">
       <c r="A400" s="4" t="s">
-        <v>1233</v>
+        <v>89</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>1234</v>
+        <v>1064</v>
       </c>
       <c r="C400" s="16"/>
       <c r="D400" s="16"/>
@@ -19557,13 +19626,15 @@
     </row>
     <row r="401">
       <c r="A401" s="4" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C401" s="16"/>
-      <c r="D401" s="16"/>
+      <c r="D401" s="9" t="s">
+        <v>1239</v>
+      </c>
       <c r="E401" s="14"/>
       <c r="F401" s="14"/>
       <c r="G401" s="14"/>
@@ -19571,14 +19642,12 @@
     </row>
     <row r="402">
       <c r="A402" s="4" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B402" s="5" t="s">
-        <v>1072</v>
-      </c>
+        <v>1240</v>
+      </c>
+      <c r="B402" s="5"/>
       <c r="C402" s="16"/>
       <c r="D402" s="9" t="s">
-        <v>159</v>
+        <v>1241</v>
       </c>
       <c r="E402" s="14"/>
       <c r="F402" s="14"/>
@@ -19587,10 +19656,10 @@
     </row>
     <row r="403">
       <c r="A403" s="4" t="s">
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>1238</v>
+        <v>90</v>
       </c>
       <c r="C403" s="16"/>
       <c r="D403" s="16"/>
@@ -19601,10 +19670,10 @@
     </row>
     <row r="404">
       <c r="A404" s="4" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>1080</v>
+        <v>484</v>
       </c>
       <c r="C404" s="16"/>
       <c r="D404" s="16"/>
@@ -19615,10 +19684,10 @@
     </row>
     <row r="405">
       <c r="A405" s="4" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>1082</v>
+        <v>487</v>
       </c>
       <c r="C405" s="16"/>
       <c r="D405" s="16"/>
@@ -19629,10 +19698,10 @@
     </row>
     <row r="406">
       <c r="A406" s="4" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>1242</v>
+        <v>79</v>
       </c>
       <c r="C406" s="16"/>
       <c r="D406" s="16"/>
@@ -19643,14 +19712,17 @@
     </row>
     <row r="407">
       <c r="A407" s="4" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="C407" s="16"/>
-      <c r="D407" s="9" t="s">
-        <v>292</v>
+        <v>1247</v>
+      </c>
+      <c r="C407" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D407" s="16" t="str">
+        <f t="shared" ref="D407:D408" si="17">DEC2HEX(HEX2DEC(C407)+36)</f>
+        <v>2DB</v>
       </c>
       <c r="E407" s="14"/>
       <c r="F407" s="14"/>
@@ -19659,12 +19731,17 @@
     </row>
     <row r="408">
       <c r="A408" s="4" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B408" s="5"/>
-      <c r="C408" s="16"/>
-      <c r="D408" s="9" t="s">
-        <v>1245</v>
+        <v>313</v>
+      </c>
+      <c r="B408" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C408" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D408" s="16" t="str">
+        <f t="shared" si="17"/>
+        <v>2DC</v>
       </c>
       <c r="E408" s="14"/>
       <c r="F408" s="14"/>
@@ -19673,15 +19750,13 @@
     </row>
     <row r="409">
       <c r="A409" s="4" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="C409" s="16"/>
-      <c r="D409" s="9" t="s">
-        <v>556</v>
-      </c>
+      <c r="D409" s="16"/>
       <c r="E409" s="14"/>
       <c r="F409" s="14"/>
       <c r="G409" s="14"/>
@@ -19689,16 +19764,13 @@
     </row>
     <row r="410">
       <c r="A410" s="4" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>1249</v>
+        <v>493</v>
       </c>
       <c r="C410" s="16"/>
-      <c r="D410" s="9" t="str">
-        <f t="shared" ref="D410:D424" si="18">DEC2HEX(HEX2DEC(B410)+43)</f>
-        <v>379</v>
-      </c>
+      <c r="D410" s="16"/>
       <c r="E410" s="14"/>
       <c r="F410" s="14"/>
       <c r="G410" s="14"/>
@@ -19706,15 +19778,14 @@
     </row>
     <row r="411">
       <c r="A411" s="4" t="s">
-        <v>498</v>
+        <v>1252</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>576</v>
+        <v>1072</v>
       </c>
       <c r="C411" s="16"/>
-      <c r="D411" s="9" t="str">
-        <f t="shared" si="18"/>
-        <v>37A</v>
+      <c r="D411" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="E411" s="14"/>
       <c r="F411" s="14"/>
@@ -19723,16 +19794,13 @@
     </row>
     <row r="412">
       <c r="A412" s="4" t="s">
-        <v>489</v>
+        <v>1253</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>1250</v>
+        <v>1074</v>
       </c>
       <c r="C412" s="16"/>
-      <c r="D412" s="9" t="str">
-        <f t="shared" si="18"/>
-        <v>37B</v>
-      </c>
+      <c r="D412" s="16"/>
       <c r="E412" s="14"/>
       <c r="F412" s="14"/>
       <c r="G412" s="14"/>
@@ -19740,16 +19808,13 @@
     </row>
     <row r="413">
       <c r="A413" s="4" t="s">
-        <v>492</v>
+        <v>1254</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="C413" s="16"/>
-      <c r="D413" s="9" t="str">
-        <f t="shared" si="18"/>
-        <v>37C</v>
-      </c>
+      <c r="D413" s="16"/>
       <c r="E413" s="14"/>
       <c r="F413" s="14"/>
       <c r="G413" s="14"/>
@@ -19757,16 +19822,13 @@
     </row>
     <row r="414">
       <c r="A414" s="4" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="C414" s="16"/>
-      <c r="D414" s="9" t="str">
-        <f t="shared" si="18"/>
-        <v>37D</v>
-      </c>
+      <c r="D414" s="16"/>
       <c r="E414" s="14"/>
       <c r="F414" s="14"/>
       <c r="G414" s="14"/>
@@ -19774,16 +19836,13 @@
     </row>
     <row r="415">
       <c r="A415" s="4" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="C415" s="16"/>
-      <c r="D415" s="9" t="str">
-        <f t="shared" si="18"/>
-        <v>37E</v>
-      </c>
+      <c r="D415" s="16"/>
       <c r="E415" s="14"/>
       <c r="F415" s="14"/>
       <c r="G415" s="14"/>
@@ -19791,15 +19850,14 @@
     </row>
     <row r="416">
       <c r="A416" s="4" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>1257</v>
+        <v>509</v>
       </c>
       <c r="C416" s="16"/>
-      <c r="D416" s="9" t="str">
-        <f t="shared" si="18"/>
-        <v>37F</v>
+      <c r="D416" s="9" t="s">
+        <v>292</v>
       </c>
       <c r="E416" s="14"/>
       <c r="F416" s="14"/>
@@ -19808,15 +19866,12 @@
     </row>
     <row r="417">
       <c r="A417" s="4" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B417" s="5" t="s">
-        <v>1259</v>
-      </c>
+        <v>1261</v>
+      </c>
+      <c r="B417" s="5"/>
       <c r="C417" s="16"/>
-      <c r="D417" s="9" t="str">
-        <f t="shared" si="18"/>
-        <v>380</v>
+      <c r="D417" s="9" t="s">
+        <v>1262</v>
       </c>
       <c r="E417" s="14"/>
       <c r="F417" s="14"/>
@@ -19825,15 +19880,14 @@
     </row>
     <row r="418">
       <c r="A418" s="4" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="C418" s="16"/>
-      <c r="D418" s="9" t="str">
-        <f t="shared" si="18"/>
-        <v>381</v>
+      <c r="D418" s="9" t="s">
+        <v>556</v>
       </c>
       <c r="E418" s="14"/>
       <c r="F418" s="14"/>
@@ -19842,15 +19896,15 @@
     </row>
     <row r="419">
       <c r="A419" s="4" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="C419" s="16"/>
       <c r="D419" s="9" t="str">
-        <f t="shared" si="18"/>
-        <v>382</v>
+        <f t="shared" ref="D419:D433" si="18">DEC2HEX(HEX2DEC(B419)+43)</f>
+        <v>379</v>
       </c>
       <c r="E419" s="14"/>
       <c r="F419" s="14"/>
@@ -19859,15 +19913,15 @@
     </row>
     <row r="420">
       <c r="A420" s="4" t="s">
-        <v>1264</v>
+        <v>498</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>1265</v>
+        <v>576</v>
       </c>
       <c r="C420" s="16"/>
       <c r="D420" s="9" t="str">
         <f t="shared" si="18"/>
-        <v>383</v>
+        <v>37A</v>
       </c>
       <c r="E420" s="14"/>
       <c r="F420" s="14"/>
@@ -19876,7 +19930,7 @@
     </row>
     <row r="421">
       <c r="A421" s="4" t="s">
-        <v>1266</v>
+        <v>489</v>
       </c>
       <c r="B421" s="5" t="s">
         <v>1267</v>
@@ -19884,7 +19938,7 @@
       <c r="C421" s="16"/>
       <c r="D421" s="9" t="str">
         <f t="shared" si="18"/>
-        <v>384</v>
+        <v>37B</v>
       </c>
       <c r="E421" s="14"/>
       <c r="F421" s="14"/>
@@ -19893,15 +19947,15 @@
     </row>
     <row r="422">
       <c r="A422" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B422" s="5" t="s">
         <v>1268</v>
-      </c>
-      <c r="B422" s="5" t="s">
-        <v>1269</v>
       </c>
       <c r="C422" s="16"/>
       <c r="D422" s="9" t="str">
         <f t="shared" si="18"/>
-        <v>385</v>
+        <v>37C</v>
       </c>
       <c r="E422" s="14"/>
       <c r="F422" s="14"/>
@@ -19910,15 +19964,15 @@
     </row>
     <row r="423">
       <c r="A423" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B423" s="5" t="s">
         <v>1270</v>
-      </c>
-      <c r="B423" s="5" t="s">
-        <v>1220</v>
       </c>
       <c r="C423" s="16"/>
       <c r="D423" s="9" t="str">
         <f t="shared" si="18"/>
-        <v>386</v>
+        <v>37D</v>
       </c>
       <c r="E423" s="14"/>
       <c r="F423" s="14"/>
@@ -19927,15 +19981,15 @@
     </row>
     <row r="424">
       <c r="A424" s="4" t="s">
-        <v>495</v>
+        <v>1271</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C424" s="16"/>
       <c r="D424" s="9" t="str">
         <f t="shared" si="18"/>
-        <v>387</v>
+        <v>37E</v>
       </c>
       <c r="E424" s="14"/>
       <c r="F424" s="14"/>
@@ -19944,15 +19998,15 @@
     </row>
     <row r="425">
       <c r="A425" s="4" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C425" s="16"/>
-      <c r="D425" s="17" t="str">
-        <f t="shared" ref="D425:D431" si="19">DEC2HEX(HEX2DEC(B425)+44)</f>
-        <v>389</v>
+      <c r="D425" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>37F</v>
       </c>
       <c r="E425" s="14"/>
       <c r="F425" s="14"/>
@@ -19961,15 +20015,15 @@
     </row>
     <row r="426">
       <c r="A426" s="4" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C426" s="16"/>
-      <c r="D426" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>38A</v>
+      <c r="D426" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>380</v>
       </c>
       <c r="E426" s="14"/>
       <c r="F426" s="14"/>
@@ -19978,15 +20032,15 @@
     </row>
     <row r="427">
       <c r="A427" s="4" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C427" s="16"/>
-      <c r="D427" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>38B</v>
+      <c r="D427" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>381</v>
       </c>
       <c r="E427" s="14"/>
       <c r="F427" s="14"/>
@@ -19995,15 +20049,15 @@
     </row>
     <row r="428">
       <c r="A428" s="4" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C428" s="16"/>
-      <c r="D428" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>38F</v>
+      <c r="D428" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>382</v>
       </c>
       <c r="E428" s="14"/>
       <c r="F428" s="14"/>
@@ -20012,15 +20066,15 @@
     </row>
     <row r="429">
       <c r="A429" s="4" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="C429" s="16"/>
-      <c r="D429" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>390</v>
+      <c r="D429" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>383</v>
       </c>
       <c r="E429" s="14"/>
       <c r="F429" s="14"/>
@@ -20029,15 +20083,15 @@
     </row>
     <row r="430">
       <c r="A430" s="4" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C430" s="16"/>
-      <c r="D430" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>392</v>
+      <c r="D430" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>384</v>
       </c>
       <c r="E430" s="14"/>
       <c r="F430" s="14"/>
@@ -20046,15 +20100,15 @@
     </row>
     <row r="431">
       <c r="A431" s="4" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C431" s="16"/>
-      <c r="D431" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>393</v>
+      <c r="D431" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>385</v>
       </c>
       <c r="E431" s="14"/>
       <c r="F431" s="14"/>
@@ -20063,13 +20117,16 @@
     </row>
     <row r="432">
       <c r="A432" s="4" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>1287</v>
+        <v>1236</v>
       </c>
       <c r="C432" s="16"/>
-      <c r="D432" s="16"/>
+      <c r="D432" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>386</v>
+      </c>
       <c r="E432" s="14"/>
       <c r="F432" s="14"/>
       <c r="G432" s="14"/>
@@ -20077,14 +20134,15 @@
     </row>
     <row r="433">
       <c r="A433" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B433" s="5" t="s">
         <v>1288</v>
       </c>
-      <c r="B433" s="5" t="s">
-        <v>1289</v>
-      </c>
       <c r="C433" s="16"/>
-      <c r="D433" s="9" t="s">
-        <v>1290</v>
+      <c r="D433" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>387</v>
       </c>
       <c r="E433" s="14"/>
       <c r="F433" s="14"/>
@@ -20093,13 +20151,16 @@
     </row>
     <row r="434">
       <c r="A434" s="4" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>90</v>
+        <v>1290</v>
       </c>
       <c r="C434" s="16"/>
-      <c r="D434" s="16"/>
+      <c r="D434" s="17" t="str">
+        <f t="shared" ref="D434:D440" si="19">DEC2HEX(HEX2DEC(B434)+44)</f>
+        <v>389</v>
+      </c>
       <c r="E434" s="14"/>
       <c r="F434" s="14"/>
       <c r="G434" s="14"/>
@@ -20107,13 +20168,16 @@
     </row>
     <row r="435">
       <c r="A435" s="4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B435" s="5" t="s">
         <v>1292</v>
       </c>
-      <c r="B435" s="5" t="s">
-        <v>1293</v>
-      </c>
       <c r="C435" s="16"/>
-      <c r="D435" s="16"/>
+      <c r="D435" s="17" t="str">
+        <f t="shared" si="19"/>
+        <v>38A</v>
+      </c>
       <c r="E435" s="14"/>
       <c r="F435" s="14"/>
       <c r="G435" s="14"/>
@@ -20121,14 +20185,15 @@
     </row>
     <row r="436">
       <c r="A436" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B436" s="5" t="s">
         <v>1294</v>
       </c>
-      <c r="B436" s="5" t="s">
-        <v>1295</v>
-      </c>
       <c r="C436" s="16"/>
-      <c r="D436" s="9" t="s">
-        <v>1296</v>
+      <c r="D436" s="17" t="str">
+        <f t="shared" si="19"/>
+        <v>38B</v>
       </c>
       <c r="E436" s="14"/>
       <c r="F436" s="14"/>
@@ -20137,14 +20202,15 @@
     </row>
     <row r="437">
       <c r="A437" s="4" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C437" s="16"/>
-      <c r="D437" s="9" t="s">
-        <v>1299</v>
+      <c r="D437" s="17" t="str">
+        <f t="shared" si="19"/>
+        <v>38F</v>
       </c>
       <c r="E437" s="14"/>
       <c r="F437" s="14"/>
@@ -20153,13 +20219,16 @@
     </row>
     <row r="438">
       <c r="A438" s="4" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C438" s="16"/>
-      <c r="D438" s="16"/>
+      <c r="D438" s="17" t="str">
+        <f t="shared" si="19"/>
+        <v>390</v>
+      </c>
       <c r="E438" s="14"/>
       <c r="F438" s="14"/>
       <c r="G438" s="14"/>
@@ -20167,13 +20236,16 @@
     </row>
     <row r="439">
       <c r="A439" s="4" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>1156</v>
+        <v>1300</v>
       </c>
       <c r="C439" s="16"/>
-      <c r="D439" s="16"/>
+      <c r="D439" s="17" t="str">
+        <f t="shared" si="19"/>
+        <v>392</v>
+      </c>
       <c r="E439" s="14"/>
       <c r="F439" s="14"/>
       <c r="G439" s="14"/>
@@ -20181,13 +20253,16 @@
     </row>
     <row r="440">
       <c r="A440" s="4" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>1096</v>
+        <v>1302</v>
       </c>
       <c r="C440" s="16"/>
-      <c r="D440" s="16"/>
+      <c r="D440" s="17" t="str">
+        <f t="shared" si="19"/>
+        <v>393</v>
+      </c>
       <c r="E440" s="14"/>
       <c r="F440" s="14"/>
       <c r="G440" s="14"/>
@@ -20195,10 +20270,10 @@
     </row>
     <row r="441">
       <c r="A441" s="4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B441" s="5" t="s">
         <v>1304</v>
-      </c>
-      <c r="B441" s="5" t="s">
-        <v>994</v>
       </c>
       <c r="C441" s="16"/>
       <c r="D441" s="16"/>
@@ -20212,10 +20287,12 @@
         <v>1305</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>427</v>
+        <v>1306</v>
       </c>
       <c r="C442" s="16"/>
-      <c r="D442" s="16"/>
+      <c r="D442" s="9" t="s">
+        <v>1307</v>
+      </c>
       <c r="E442" s="14"/>
       <c r="F442" s="14"/>
       <c r="G442" s="14"/>
@@ -20223,16 +20300,13 @@
     </row>
     <row r="443">
       <c r="A443" s="4" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>1307</v>
+        <v>90</v>
       </c>
       <c r="C443" s="16"/>
-      <c r="D443" s="16" t="str">
-        <f>DEC2HEX(HEX2DEC(B443)+43)</f>
-        <v>39D</v>
-      </c>
+      <c r="D443" s="16"/>
       <c r="E443" s="14"/>
       <c r="F443" s="14"/>
       <c r="G443" s="14"/>
@@ -20240,10 +20314,10 @@
     </row>
     <row r="444">
       <c r="A444" s="4" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>595</v>
+        <v>1310</v>
       </c>
       <c r="C444" s="16"/>
       <c r="D444" s="16"/>
@@ -20254,13 +20328,15 @@
     </row>
     <row r="445">
       <c r="A445" s="4" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="C445" s="16"/>
-      <c r="D445" s="16"/>
+      <c r="D445" s="9" t="s">
+        <v>1313</v>
+      </c>
       <c r="E445" s="14"/>
       <c r="F445" s="14"/>
       <c r="G445" s="14"/>
@@ -20268,14 +20344,14 @@
     </row>
     <row r="446">
       <c r="A446" s="4" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="C446" s="16"/>
       <c r="D446" s="9" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="E446" s="14"/>
       <c r="F446" s="14"/>
@@ -20284,10 +20360,10 @@
     </row>
     <row r="447">
       <c r="A447" s="4" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>995</v>
+        <v>1318</v>
       </c>
       <c r="C447" s="16"/>
       <c r="D447" s="16"/>
@@ -20298,10 +20374,10 @@
     </row>
     <row r="448">
       <c r="A448" s="4" t="s">
-        <v>1315</v>
+        <v>1319</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>1316</v>
+        <v>1176</v>
       </c>
       <c r="C448" s="16"/>
       <c r="D448" s="16"/>
@@ -20312,10 +20388,10 @@
     </row>
     <row r="449">
       <c r="A449" s="4" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>1078</v>
+        <v>1114</v>
       </c>
       <c r="C449" s="16"/>
       <c r="D449" s="16"/>
@@ -20326,10 +20402,10 @@
     </row>
     <row r="450">
       <c r="A450" s="4" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>485</v>
+        <v>994</v>
       </c>
       <c r="C450" s="16"/>
       <c r="D450" s="16"/>
@@ -20340,10 +20416,10 @@
     </row>
     <row r="451">
       <c r="A451" s="4" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>90</v>
+        <v>427</v>
       </c>
       <c r="C451" s="16"/>
       <c r="D451" s="16"/>
@@ -20354,17 +20430,15 @@
     </row>
     <row r="452">
       <c r="A452" s="4" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C452" s="5" t="s">
-        <v>1321</v>
-      </c>
+        <v>1324</v>
+      </c>
+      <c r="C452" s="16"/>
       <c r="D452" s="16" t="str">
-        <f t="shared" ref="D452:D459" si="20">DEC2HEX(HEX2DEC(B452)+53)</f>
-        <v>3D5</v>
+        <f>DEC2HEX(HEX2DEC(B452)+43)</f>
+        <v>39D</v>
       </c>
       <c r="E452" s="14"/>
       <c r="F452" s="14"/>
@@ -20373,18 +20447,13 @@
     </row>
     <row r="453">
       <c r="A453" s="4" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C453" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D453" s="16" t="str">
-        <f t="shared" si="20"/>
-        <v>3D6</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="C453" s="16"/>
+      <c r="D453" s="16"/>
       <c r="E453" s="14"/>
       <c r="F453" s="14"/>
       <c r="G453" s="14"/>
@@ -20392,18 +20461,13 @@
     </row>
     <row r="454">
       <c r="A454" s="4" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C454" s="5" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D454" s="16" t="str">
-        <f t="shared" si="20"/>
-        <v>3D7</v>
-      </c>
+        <v>1327</v>
+      </c>
+      <c r="C454" s="16"/>
+      <c r="D454" s="16"/>
       <c r="E454" s="14"/>
       <c r="F454" s="14"/>
       <c r="G454" s="14"/>
@@ -20411,17 +20475,14 @@
     </row>
     <row r="455">
       <c r="A455" s="4" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C455" s="5" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D455" s="16" t="str">
-        <f t="shared" si="20"/>
-        <v>3D8</v>
+        <v>1329</v>
+      </c>
+      <c r="C455" s="16"/>
+      <c r="D455" s="9" t="s">
+        <v>1330</v>
       </c>
       <c r="E455" s="14"/>
       <c r="F455" s="14"/>
@@ -20430,18 +20491,13 @@
     </row>
     <row r="456">
       <c r="A456" s="4" t="s">
-        <v>552</v>
+        <v>1331</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C456" s="5" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D456" s="16" t="str">
-        <f t="shared" si="20"/>
-        <v>3D9</v>
-      </c>
+        <v>995</v>
+      </c>
+      <c r="C456" s="16"/>
+      <c r="D456" s="16"/>
       <c r="E456" s="14"/>
       <c r="F456" s="14"/>
       <c r="G456" s="14"/>
@@ -20449,18 +20505,13 @@
     </row>
     <row r="457">
       <c r="A457" s="4" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C457" s="5" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D457" s="16" t="str">
-        <f t="shared" si="20"/>
-        <v>3DA</v>
-      </c>
+        <v>1333</v>
+      </c>
+      <c r="C457" s="16"/>
+      <c r="D457" s="16"/>
       <c r="E457" s="14"/>
       <c r="F457" s="14"/>
       <c r="G457" s="14"/>
@@ -20468,18 +20519,13 @@
     </row>
     <row r="458">
       <c r="A458" s="4" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C458" s="5" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D458" s="16" t="str">
-        <f t="shared" si="20"/>
-        <v>3DD</v>
-      </c>
+        <v>1095</v>
+      </c>
+      <c r="C458" s="16"/>
+      <c r="D458" s="16"/>
       <c r="E458" s="14"/>
       <c r="F458" s="14"/>
       <c r="G458" s="14"/>
@@ -20487,18 +20533,13 @@
     </row>
     <row r="459">
       <c r="A459" s="4" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C459" s="5" t="s">
-        <v>1334</v>
-      </c>
-      <c r="D459" s="16" t="str">
-        <f t="shared" si="20"/>
-        <v>3E1</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="C459" s="16"/>
+      <c r="D459" s="16"/>
       <c r="E459" s="14"/>
       <c r="F459" s="14"/>
       <c r="G459" s="14"/>
@@ -20506,10 +20547,10 @@
     </row>
     <row r="460">
       <c r="A460" s="4" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>1336</v>
+        <v>90</v>
       </c>
       <c r="C460" s="16"/>
       <c r="D460" s="16"/>
@@ -20525,10 +20566,12 @@
       <c r="B461" s="5" t="s">
         <v>1338</v>
       </c>
-      <c r="C461" s="16"/>
+      <c r="C461" s="5" t="s">
+        <v>1338</v>
+      </c>
       <c r="D461" s="16" t="str">
-        <f t="shared" ref="D461:D463" si="21">DEC2HEX(HEX2DEC(B461)+53)</f>
-        <v>3E4</v>
+        <f t="shared" ref="D461:D468" si="20">DEC2HEX(HEX2DEC(B461)+53)</f>
+        <v>3D5</v>
       </c>
       <c r="E461" s="14"/>
       <c r="F461" s="14"/>
@@ -20542,10 +20585,12 @@
       <c r="B462" s="5" t="s">
         <v>1340</v>
       </c>
-      <c r="C462" s="16"/>
+      <c r="C462" s="5" t="s">
+        <v>1340</v>
+      </c>
       <c r="D462" s="16" t="str">
-        <f t="shared" si="21"/>
-        <v>3E8</v>
+        <f t="shared" si="20"/>
+        <v>3D6</v>
       </c>
       <c r="E462" s="14"/>
       <c r="F462" s="14"/>
@@ -20559,10 +20604,12 @@
       <c r="B463" s="5" t="s">
         <v>1342</v>
       </c>
-      <c r="C463" s="16"/>
+      <c r="C463" s="5" t="s">
+        <v>1342</v>
+      </c>
       <c r="D463" s="16" t="str">
-        <f t="shared" si="21"/>
-        <v>3E9</v>
+        <f t="shared" si="20"/>
+        <v>3D7</v>
       </c>
       <c r="E463" s="14"/>
       <c r="F463" s="14"/>
@@ -20574,10 +20621,15 @@
         <v>1343</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="C464" s="16"/>
-      <c r="D464" s="16"/>
+        <v>1344</v>
+      </c>
+      <c r="C464" s="5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D464" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>3D8</v>
+      </c>
       <c r="E464" s="14"/>
       <c r="F464" s="14"/>
       <c r="G464" s="14"/>
@@ -20585,14 +20637,17 @@
     </row>
     <row r="465">
       <c r="A465" s="4" t="s">
-        <v>1344</v>
+        <v>552</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C465" s="16"/>
-      <c r="D465" s="9" t="s">
         <v>1345</v>
+      </c>
+      <c r="C465" s="5" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D465" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>3D9</v>
       </c>
       <c r="E465" s="14"/>
       <c r="F465" s="14"/>
@@ -20606,9 +20661,12 @@
       <c r="B466" s="5" t="s">
         <v>1347</v>
       </c>
-      <c r="C466" s="16"/>
-      <c r="D466" s="9" t="s">
-        <v>1348</v>
+      <c r="C466" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D466" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>3DA</v>
       </c>
       <c r="E466" s="14"/>
       <c r="F466" s="14"/>
@@ -20617,14 +20675,17 @@
     </row>
     <row r="467">
       <c r="A467" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B467" s="5" t="s">
         <v>1349</v>
       </c>
-      <c r="B467" s="5" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C467" s="16"/>
-      <c r="D467" s="9" t="s">
-        <v>1351</v>
+      <c r="C467" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D467" s="16" t="str">
+        <f t="shared" si="20"/>
+        <v>3DD</v>
       </c>
       <c r="E467" s="14"/>
       <c r="F467" s="14"/>
@@ -20633,15 +20694,17 @@
     </row>
     <row r="468">
       <c r="A468" s="4" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C468" s="16"/>
+        <v>1351</v>
+      </c>
+      <c r="C468" s="5" t="s">
+        <v>1351</v>
+      </c>
       <c r="D468" s="16" t="str">
-        <f t="shared" ref="D468:D483" si="22">DEC2HEX(HEX2DEC(B468)+53)</f>
-        <v>3EE</v>
+        <f t="shared" si="20"/>
+        <v>3E1</v>
       </c>
       <c r="E468" s="14"/>
       <c r="F468" s="14"/>
@@ -20650,16 +20713,13 @@
     </row>
     <row r="469">
       <c r="A469" s="4" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C469" s="16"/>
-      <c r="D469" s="16" t="str">
-        <f t="shared" si="22"/>
-        <v>3F0</v>
-      </c>
+      <c r="D469" s="16"/>
       <c r="E469" s="14"/>
       <c r="F469" s="14"/>
       <c r="G469" s="14"/>
@@ -20667,15 +20727,15 @@
     </row>
     <row r="470">
       <c r="A470" s="4" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C470" s="16"/>
       <c r="D470" s="16" t="str">
-        <f t="shared" si="22"/>
-        <v>3F1</v>
+        <f t="shared" ref="D470:D472" si="21">DEC2HEX(HEX2DEC(B470)+53)</f>
+        <v>3E4</v>
       </c>
       <c r="E470" s="14"/>
       <c r="F470" s="14"/>
@@ -20684,15 +20744,15 @@
     </row>
     <row r="471">
       <c r="A471" s="4" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C471" s="16"/>
       <c r="D471" s="16" t="str">
-        <f t="shared" si="22"/>
-        <v>3F2</v>
+        <f t="shared" si="21"/>
+        <v>3E8</v>
       </c>
       <c r="E471" s="14"/>
       <c r="F471" s="14"/>
@@ -20701,15 +20761,15 @@
     </row>
     <row r="472">
       <c r="A472" s="4" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C472" s="16"/>
       <c r="D472" s="16" t="str">
-        <f t="shared" si="22"/>
-        <v>3F3</v>
+        <f t="shared" si="21"/>
+        <v>3E9</v>
       </c>
       <c r="E472" s="14"/>
       <c r="F472" s="14"/>
@@ -20718,16 +20778,13 @@
     </row>
     <row r="473">
       <c r="A473" s="4" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>1363</v>
+        <v>623</v>
       </c>
       <c r="C473" s="16"/>
-      <c r="D473" s="16" t="str">
-        <f t="shared" si="22"/>
-        <v>3F4</v>
-      </c>
+      <c r="D473" s="16"/>
       <c r="E473" s="14"/>
       <c r="F473" s="14"/>
       <c r="G473" s="14"/>
@@ -20735,15 +20792,14 @@
     </row>
     <row r="474">
       <c r="A474" s="4" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>1365</v>
+        <v>1186</v>
       </c>
       <c r="C474" s="16"/>
-      <c r="D474" s="16" t="str">
-        <f t="shared" si="22"/>
-        <v>3F6</v>
+      <c r="D474" s="9" t="s">
+        <v>1362</v>
       </c>
       <c r="E474" s="14"/>
       <c r="F474" s="14"/>
@@ -20752,15 +20808,14 @@
     </row>
     <row r="475">
       <c r="A475" s="4" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C475" s="16"/>
-      <c r="D475" s="16" t="str">
-        <f t="shared" si="22"/>
-        <v>3F7</v>
+      <c r="D475" s="9" t="s">
+        <v>1365</v>
       </c>
       <c r="E475" s="14"/>
       <c r="F475" s="14"/>
@@ -20769,15 +20824,14 @@
     </row>
     <row r="476">
       <c r="A476" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B476" s="5" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C476" s="16"/>
+      <c r="D476" s="9" t="s">
         <v>1368</v>
-      </c>
-      <c r="B476" s="5" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C476" s="16"/>
-      <c r="D476" s="16" t="str">
-        <f t="shared" si="22"/>
-        <v>3F8</v>
       </c>
       <c r="E476" s="14"/>
       <c r="F476" s="14"/>
@@ -20786,15 +20840,15 @@
     </row>
     <row r="477">
       <c r="A477" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B477" s="5" t="s">
         <v>1370</v>
-      </c>
-      <c r="B477" s="5" t="s">
-        <v>1371</v>
       </c>
       <c r="C477" s="16"/>
       <c r="D477" s="16" t="str">
-        <f t="shared" si="22"/>
-        <v>3FC</v>
+        <f t="shared" ref="D477:D492" si="22">DEC2HEX(HEX2DEC(B477)+53)</f>
+        <v>3EE</v>
       </c>
       <c r="E477" s="14"/>
       <c r="F477" s="14"/>
@@ -20803,7 +20857,7 @@
     </row>
     <row r="478">
       <c r="A478" s="4" t="s">
-        <v>404</v>
+        <v>1371</v>
       </c>
       <c r="B478" s="5" t="s">
         <v>1372</v>
@@ -20811,7 +20865,7 @@
       <c r="C478" s="16"/>
       <c r="D478" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>3FD</v>
+        <v>3F0</v>
       </c>
       <c r="E478" s="14"/>
       <c r="F478" s="14"/>
@@ -20823,12 +20877,12 @@
         <v>1373</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>1313</v>
+        <v>1374</v>
       </c>
       <c r="C479" s="16"/>
       <c r="D479" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>3FE</v>
+        <v>3F1</v>
       </c>
       <c r="E479" s="14"/>
       <c r="F479" s="14"/>
@@ -20837,15 +20891,15 @@
     </row>
     <row r="480">
       <c r="A480" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C480" s="16"/>
       <c r="D480" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>3FF</v>
+        <v>3F2</v>
       </c>
       <c r="E480" s="14"/>
       <c r="F480" s="14"/>
@@ -20854,15 +20908,15 @@
     </row>
     <row r="481">
       <c r="A481" s="4" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="C481" s="16"/>
       <c r="D481" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>3FA</v>
+        <v>3F3</v>
       </c>
       <c r="E481" s="14"/>
       <c r="F481" s="14"/>
@@ -20871,15 +20925,15 @@
     </row>
     <row r="482">
       <c r="A482" s="4" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="C482" s="16"/>
       <c r="D482" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>401</v>
+        <v>3F4</v>
       </c>
       <c r="E482" s="14"/>
       <c r="F482" s="14"/>
@@ -20888,15 +20942,15 @@
     </row>
     <row r="483">
       <c r="A483" s="4" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C483" s="16"/>
       <c r="D483" s="16" t="str">
         <f t="shared" si="22"/>
-        <v>405</v>
+        <v>3F6</v>
       </c>
       <c r="E483" s="14"/>
       <c r="F483" s="14"/>
@@ -20905,13 +20959,16 @@
     </row>
     <row r="484">
       <c r="A484" s="4" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>1372</v>
+        <v>1384</v>
       </c>
       <c r="C484" s="16"/>
-      <c r="D484" s="16"/>
+      <c r="D484" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>3F7</v>
+      </c>
       <c r="E484" s="14"/>
       <c r="F484" s="14"/>
       <c r="G484" s="14"/>
@@ -20919,13 +20976,16 @@
     </row>
     <row r="485">
       <c r="A485" s="4" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>1313</v>
+        <v>1386</v>
       </c>
       <c r="C485" s="16"/>
-      <c r="D485" s="16"/>
+      <c r="D485" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>3F8</v>
+      </c>
       <c r="E485" s="14"/>
       <c r="F485" s="14"/>
       <c r="G485" s="14"/>
@@ -20933,13 +20993,16 @@
     </row>
     <row r="486">
       <c r="A486" s="4" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="C486" s="16"/>
-      <c r="D486" s="16"/>
+      <c r="D486" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>3FC</v>
+      </c>
       <c r="E486" s="14"/>
       <c r="F486" s="14"/>
       <c r="G486" s="14"/>
@@ -20947,13 +21010,16 @@
     </row>
     <row r="487">
       <c r="A487" s="4" t="s">
-        <v>1386</v>
+        <v>404</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="C487" s="16"/>
-      <c r="D487" s="16"/>
+      <c r="D487" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>3FD</v>
+      </c>
       <c r="E487" s="14"/>
       <c r="F487" s="14"/>
       <c r="G487" s="14"/>
@@ -20961,13 +21027,16 @@
     </row>
     <row r="488">
       <c r="A488" s="4" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>1389</v>
+        <v>1330</v>
       </c>
       <c r="C488" s="16"/>
-      <c r="D488" s="16"/>
+      <c r="D488" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>3FE</v>
+      </c>
       <c r="E488" s="14"/>
       <c r="F488" s="14"/>
       <c r="G488" s="14"/>
@@ -20975,13 +21044,16 @@
     </row>
     <row r="489">
       <c r="A489" s="4" t="s">
-        <v>569</v>
+        <v>1391</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="C489" s="16"/>
-      <c r="D489" s="16"/>
+      <c r="D489" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>3FF</v>
+      </c>
       <c r="E489" s="14"/>
       <c r="F489" s="14"/>
       <c r="G489" s="14"/>
@@ -20989,13 +21061,16 @@
     </row>
     <row r="490">
       <c r="A490" s="4" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="C490" s="16"/>
-      <c r="D490" s="16"/>
+      <c r="D490" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>3FA</v>
+      </c>
       <c r="E490" s="14"/>
       <c r="F490" s="14"/>
       <c r="G490" s="14"/>
@@ -21003,13 +21078,16 @@
     </row>
     <row r="491">
       <c r="A491" s="4" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="C491" s="16"/>
-      <c r="D491" s="16"/>
+      <c r="D491" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>401</v>
+      </c>
       <c r="E491" s="14"/>
       <c r="F491" s="14"/>
       <c r="G491" s="14"/>
@@ -21017,13 +21095,16 @@
     </row>
     <row r="492">
       <c r="A492" s="4" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>1385</v>
+        <v>1398</v>
       </c>
       <c r="C492" s="16"/>
-      <c r="D492" s="16"/>
+      <c r="D492" s="16" t="str">
+        <f t="shared" si="22"/>
+        <v>405</v>
+      </c>
       <c r="E492" s="14"/>
       <c r="F492" s="14"/>
       <c r="G492" s="14"/>
@@ -21031,10 +21112,10 @@
     </row>
     <row r="493">
       <c r="A493" s="4" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>291</v>
+        <v>1389</v>
       </c>
       <c r="C493" s="16"/>
       <c r="D493" s="16"/>
@@ -21045,10 +21126,10 @@
     </row>
     <row r="494">
       <c r="A494" s="4" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>1398</v>
+        <v>1330</v>
       </c>
       <c r="C494" s="16"/>
       <c r="D494" s="16"/>
@@ -21059,10 +21140,10 @@
     </row>
     <row r="495">
       <c r="A495" s="4" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="C495" s="16"/>
       <c r="D495" s="16"/>
@@ -21073,10 +21154,10 @@
     </row>
     <row r="496">
       <c r="A496" s="4" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="C496" s="16"/>
       <c r="D496" s="16"/>
@@ -21087,10 +21168,10 @@
     </row>
     <row r="497">
       <c r="A497" s="4" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>1203</v>
+        <v>1406</v>
       </c>
       <c r="C497" s="16"/>
       <c r="D497" s="16"/>
@@ -21101,10 +21182,10 @@
     </row>
     <row r="498">
       <c r="A498" s="4" t="s">
-        <v>1404</v>
+        <v>569</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="C498" s="16"/>
       <c r="D498" s="16"/>
@@ -21115,10 +21196,10 @@
     </row>
     <row r="499">
       <c r="A499" s="4" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>509</v>
+        <v>1409</v>
       </c>
       <c r="C499" s="16"/>
       <c r="D499" s="16"/>
@@ -21129,10 +21210,10 @@
     </row>
     <row r="500">
       <c r="A500" s="4" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>1387</v>
+        <v>1411</v>
       </c>
       <c r="C500" s="16"/>
       <c r="D500" s="16"/>
@@ -21143,10 +21224,10 @@
     </row>
     <row r="501">
       <c r="A501" s="4" t="s">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>1389</v>
+        <v>1402</v>
       </c>
       <c r="C501" s="16"/>
       <c r="D501" s="16"/>
@@ -21157,10 +21238,10 @@
     </row>
     <row r="502">
       <c r="A502" s="4" t="s">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>1212</v>
+        <v>291</v>
       </c>
       <c r="C502" s="16"/>
       <c r="D502" s="16"/>
@@ -21171,10 +21252,10 @@
     </row>
     <row r="503">
       <c r="A503" s="4" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>1411</v>
+        <v>1415</v>
       </c>
       <c r="C503" s="16"/>
       <c r="D503" s="16"/>
@@ -21185,10 +21266,10 @@
     </row>
     <row r="504">
       <c r="A504" s="4" t="s">
-        <v>1412</v>
+        <v>1416</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>1413</v>
+        <v>1417</v>
       </c>
       <c r="C504" s="16"/>
       <c r="D504" s="16"/>
@@ -21199,10 +21280,10 @@
     </row>
     <row r="505">
       <c r="A505" s="4" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>90</v>
+        <v>1419</v>
       </c>
       <c r="C505" s="16"/>
       <c r="D505" s="16"/>
@@ -21213,10 +21294,10 @@
     </row>
     <row r="506">
       <c r="A506" s="4" t="s">
-        <v>1415</v>
+        <v>1420</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>90</v>
+        <v>1221</v>
       </c>
       <c r="C506" s="16"/>
       <c r="D506" s="16"/>
@@ -21227,10 +21308,10 @@
     </row>
     <row r="507">
       <c r="A507" s="4" t="s">
-        <v>1416</v>
+        <v>1421</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>90</v>
+        <v>1422</v>
       </c>
       <c r="C507" s="16"/>
       <c r="D507" s="16"/>
@@ -21241,10 +21322,10 @@
     </row>
     <row r="508">
       <c r="A508" s="4" t="s">
-        <v>1417</v>
+        <v>1423</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>1418</v>
+        <v>509</v>
       </c>
       <c r="C508" s="16"/>
       <c r="D508" s="16"/>
@@ -21255,10 +21336,10 @@
     </row>
     <row r="509">
       <c r="A509" s="4" t="s">
-        <v>1419</v>
+        <v>1424</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>1420</v>
+        <v>1404</v>
       </c>
       <c r="C509" s="16"/>
       <c r="D509" s="16"/>
@@ -21269,10 +21350,10 @@
     </row>
     <row r="510">
       <c r="A510" s="4" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>1422</v>
+        <v>1406</v>
       </c>
       <c r="C510" s="16"/>
       <c r="D510" s="16"/>
@@ -21283,10 +21364,10 @@
     </row>
     <row r="511">
       <c r="A511" s="4" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>526</v>
+        <v>1229</v>
       </c>
       <c r="C511" s="16"/>
       <c r="D511" s="16"/>
@@ -21297,10 +21378,10 @@
     </row>
     <row r="512">
       <c r="A512" s="4" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="C512" s="16"/>
       <c r="D512" s="16"/>
@@ -21311,10 +21392,10 @@
     </row>
     <row r="513">
       <c r="A513" s="4" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="C513" s="16"/>
       <c r="D513" s="16"/>
@@ -21325,10 +21406,10 @@
     </row>
     <row r="514">
       <c r="A514" s="4" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>517</v>
+        <v>90</v>
       </c>
       <c r="C514" s="16"/>
       <c r="D514" s="16"/>
@@ -21339,10 +21420,10 @@
     </row>
     <row r="515">
       <c r="A515" s="4" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>523</v>
+        <v>90</v>
       </c>
       <c r="C515" s="16"/>
       <c r="D515" s="16"/>
@@ -21353,10 +21434,10 @@
     </row>
     <row r="516">
       <c r="A516" s="4" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>1431</v>
+        <v>90</v>
       </c>
       <c r="C516" s="16"/>
       <c r="D516" s="16"/>
@@ -21367,10 +21448,10 @@
     </row>
     <row r="517">
       <c r="A517" s="4" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>1247</v>
+        <v>1435</v>
       </c>
       <c r="C517" s="16"/>
       <c r="D517" s="16"/>
@@ -21381,10 +21462,10 @@
     </row>
     <row r="518">
       <c r="A518" s="4" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="C518" s="16"/>
       <c r="D518" s="16"/>
@@ -21395,10 +21476,10 @@
     </row>
     <row r="519">
       <c r="A519" s="4" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="C519" s="16"/>
       <c r="D519" s="16"/>
@@ -21409,10 +21490,10 @@
     </row>
     <row r="520">
       <c r="A520" s="4" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>1438</v>
+        <v>526</v>
       </c>
       <c r="C520" s="16"/>
       <c r="D520" s="16"/>
@@ -21423,10 +21504,10 @@
     </row>
     <row r="521">
       <c r="A521" s="4" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="C521" s="16"/>
       <c r="D521" s="16"/>
@@ -21437,10 +21518,10 @@
     </row>
     <row r="522">
       <c r="A522" s="4" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>159</v>
+        <v>1444</v>
       </c>
       <c r="C522" s="16"/>
       <c r="D522" s="16"/>
@@ -21451,10 +21532,10 @@
     </row>
     <row r="523">
       <c r="A523" s="4" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>1443</v>
+        <v>517</v>
       </c>
       <c r="C523" s="16"/>
       <c r="D523" s="16"/>
@@ -21465,10 +21546,10 @@
     </row>
     <row r="524">
       <c r="A524" s="4" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>1445</v>
+        <v>523</v>
       </c>
       <c r="C524" s="16"/>
       <c r="D524" s="16"/>
@@ -21479,10 +21560,10 @@
     </row>
     <row r="525">
       <c r="A525" s="4" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C525" s="16"/>
       <c r="D525" s="16"/>
@@ -21493,10 +21574,10 @@
     </row>
     <row r="526">
       <c r="A526" s="4" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>1449</v>
+        <v>1264</v>
       </c>
       <c r="C526" s="16"/>
       <c r="D526" s="16"/>
@@ -21507,16 +21588,13 @@
     </row>
     <row r="527">
       <c r="A527" s="4" t="s">
-        <v>160</v>
+        <v>1450</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C527" s="16"/>
-      <c r="D527" s="9" t="str">
-        <f t="shared" ref="D527:D530" si="23">DEC2HEX(HEX2DEC(B527)+66)</f>
-        <v>4FE</v>
-      </c>
+      <c r="D527" s="16"/>
       <c r="E527" s="14"/>
       <c r="F527" s="14"/>
       <c r="G527" s="14"/>
@@ -21524,16 +21602,13 @@
     </row>
     <row r="528">
       <c r="A528" s="4" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C528" s="16"/>
-      <c r="D528" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>4FF</v>
-      </c>
+      <c r="D528" s="16"/>
       <c r="E528" s="14"/>
       <c r="F528" s="14"/>
       <c r="G528" s="14"/>
@@ -21541,16 +21616,13 @@
     </row>
     <row r="529">
       <c r="A529" s="4" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="C529" s="16"/>
-      <c r="D529" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>500</v>
-      </c>
+      <c r="D529" s="16"/>
       <c r="E529" s="14"/>
       <c r="F529" s="14"/>
       <c r="G529" s="14"/>
@@ -21558,16 +21630,13 @@
     </row>
     <row r="530">
       <c r="A530" s="4" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C530" s="16"/>
-      <c r="D530" s="9" t="str">
-        <f t="shared" si="23"/>
-        <v>519</v>
-      </c>
+      <c r="D530" s="16"/>
       <c r="E530" s="14"/>
       <c r="F530" s="14"/>
       <c r="G530" s="14"/>
@@ -21575,10 +21644,10 @@
     </row>
     <row r="531">
       <c r="A531" s="4" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>1458</v>
+        <v>159</v>
       </c>
       <c r="C531" s="16"/>
       <c r="D531" s="16"/>
@@ -21589,10 +21658,10 @@
     </row>
     <row r="532">
       <c r="A532" s="4" t="s">
-        <v>169</v>
+        <v>1459</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C532" s="16"/>
       <c r="D532" s="16"/>
@@ -21603,15 +21672,13 @@
     </row>
     <row r="533">
       <c r="A533" s="4" t="s">
-        <v>372</v>
+        <v>1461</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="C533" s="16"/>
-      <c r="D533" s="9" t="s">
-        <v>1461</v>
-      </c>
+      <c r="D533" s="16"/>
       <c r="E533" s="14"/>
       <c r="F533" s="14"/>
       <c r="G533" s="14"/>
@@ -21619,13 +21686,13 @@
     </row>
     <row r="534">
       <c r="A534" s="4" t="s">
-        <v>409</v>
+        <v>1463</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="C534" s="16"/>
-      <c r="D534" s="9"/>
+      <c r="D534" s="16"/>
       <c r="E534" s="14"/>
       <c r="F534" s="14"/>
       <c r="G534" s="14"/>
@@ -21633,15 +21700,13 @@
     </row>
     <row r="535">
       <c r="A535" s="4" t="s">
-        <v>374</v>
+        <v>1465</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="C535" s="16"/>
-      <c r="D535" s="9" t="s">
-        <v>1464</v>
-      </c>
+      <c r="D535" s="16"/>
       <c r="E535" s="14"/>
       <c r="F535" s="14"/>
       <c r="G535" s="14"/>
@@ -21649,13 +21714,16 @@
     </row>
     <row r="536">
       <c r="A536" s="4" t="s">
-        <v>628</v>
+        <v>160</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="C536" s="16"/>
-      <c r="D536" s="16"/>
+      <c r="D536" s="9" t="str">
+        <f t="shared" ref="D536:D539" si="23">DEC2HEX(HEX2DEC(B536)+66)</f>
+        <v>4FE</v>
+      </c>
       <c r="E536" s="14"/>
       <c r="F536" s="14"/>
       <c r="G536" s="14"/>
@@ -21663,13 +21731,16 @@
     </row>
     <row r="537">
       <c r="A537" s="4" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>1245</v>
+        <v>1469</v>
       </c>
       <c r="C537" s="16"/>
-      <c r="D537" s="16"/>
+      <c r="D537" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>4FF</v>
+      </c>
       <c r="E537" s="14"/>
       <c r="F537" s="14"/>
       <c r="G537" s="14"/>
@@ -21677,13 +21748,16 @@
     </row>
     <row r="538">
       <c r="A538" s="4" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="C538" s="16"/>
-      <c r="D538" s="16"/>
+      <c r="D538" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>500</v>
+      </c>
       <c r="E538" s="14"/>
       <c r="F538" s="14"/>
       <c r="G538" s="14"/>
@@ -21691,13 +21765,16 @@
     </row>
     <row r="539">
       <c r="A539" s="4" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="C539" s="16"/>
-      <c r="D539" s="16"/>
+      <c r="D539" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>519</v>
+      </c>
       <c r="E539" s="14"/>
       <c r="F539" s="14"/>
       <c r="G539" s="14"/>
@@ -21705,10 +21782,10 @@
     </row>
     <row r="540">
       <c r="A540" s="4" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="C540" s="16"/>
       <c r="D540" s="16"/>
@@ -21719,10 +21796,10 @@
     </row>
     <row r="541">
       <c r="A541" s="4" t="s">
-        <v>1473</v>
+        <v>169</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>568</v>
+        <v>1476</v>
       </c>
       <c r="C541" s="16"/>
       <c r="D541" s="16"/>
@@ -21733,13 +21810,15 @@
     </row>
     <row r="542">
       <c r="A542" s="4" t="s">
-        <v>1474</v>
+        <v>372</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="C542" s="16"/>
-      <c r="D542" s="16"/>
+      <c r="D542" s="9" t="s">
+        <v>1478</v>
+      </c>
       <c r="E542" s="14"/>
       <c r="F542" s="14"/>
       <c r="G542" s="14"/>
@@ -21747,13 +21826,13 @@
     </row>
     <row r="543">
       <c r="A543" s="4" t="s">
-        <v>1476</v>
+        <v>409</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="C543" s="16"/>
-      <c r="D543" s="16"/>
+      <c r="D543" s="9"/>
       <c r="E543" s="14"/>
       <c r="F543" s="14"/>
       <c r="G543" s="14"/>
@@ -21761,13 +21840,15 @@
     </row>
     <row r="544">
       <c r="A544" s="4" t="s">
-        <v>1478</v>
+        <v>374</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>1468</v>
+        <v>1480</v>
       </c>
       <c r="C544" s="16"/>
-      <c r="D544" s="16"/>
+      <c r="D544" s="9" t="s">
+        <v>1481</v>
+      </c>
       <c r="E544" s="14"/>
       <c r="F544" s="14"/>
       <c r="G544" s="14"/>
@@ -21775,10 +21856,10 @@
     </row>
     <row r="545">
       <c r="A545" s="4" t="s">
-        <v>1479</v>
+        <v>628</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>1470</v>
+        <v>1482</v>
       </c>
       <c r="C545" s="16"/>
       <c r="D545" s="16"/>
@@ -21789,10 +21870,10 @@
     </row>
     <row r="546">
       <c r="A546" s="4" t="s">
-        <v>171</v>
+        <v>1483</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>1255</v>
+        <v>1262</v>
       </c>
       <c r="C546" s="16"/>
       <c r="D546" s="16"/>
@@ -21803,10 +21884,10 @@
     </row>
     <row r="547">
       <c r="A547" s="4" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>1400</v>
+        <v>1485</v>
       </c>
       <c r="C547" s="16"/>
       <c r="D547" s="16"/>
@@ -21817,10 +21898,10 @@
     </row>
     <row r="548">
       <c r="A548" s="4" t="s">
-        <v>1481</v>
+        <v>1486</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>646</v>
+        <v>1081</v>
       </c>
       <c r="C548" s="16"/>
       <c r="D548" s="16"/>
@@ -21831,10 +21912,10 @@
     </row>
     <row r="549">
       <c r="A549" s="4" t="s">
-        <v>1482</v>
+        <v>1487</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>1477</v>
+        <v>1488</v>
       </c>
       <c r="C549" s="16"/>
       <c r="D549" s="16"/>
@@ -21845,10 +21926,10 @@
     </row>
     <row r="550">
       <c r="A550" s="4" t="s">
-        <v>1483</v>
+        <v>1489</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>1484</v>
+        <v>568</v>
       </c>
       <c r="C550" s="16"/>
       <c r="D550" s="16"/>
@@ -21859,10 +21940,10 @@
     </row>
     <row r="551">
       <c r="A551" s="4" t="s">
-        <v>1485</v>
+        <v>1490</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>1486</v>
+        <v>1491</v>
       </c>
       <c r="C551" s="16"/>
       <c r="D551" s="16"/>
@@ -21873,15 +21954,13 @@
     </row>
     <row r="552">
       <c r="A552" s="4" t="s">
-        <v>590</v>
+        <v>1492</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>1220</v>
+        <v>1493</v>
       </c>
       <c r="C552" s="16"/>
-      <c r="D552" s="9" t="s">
-        <v>1487</v>
-      </c>
+      <c r="D552" s="16"/>
       <c r="E552" s="14"/>
       <c r="F552" s="14"/>
       <c r="G552" s="14"/>
@@ -21889,15 +21968,13 @@
     </row>
     <row r="553">
       <c r="A553" s="4" t="s">
-        <v>1488</v>
+        <v>1494</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>1271</v>
+        <v>1485</v>
       </c>
       <c r="C553" s="16"/>
-      <c r="D553" s="9" t="s">
-        <v>1489</v>
-      </c>
+      <c r="D553" s="16"/>
       <c r="E553" s="14"/>
       <c r="F553" s="14"/>
       <c r="G553" s="14"/>
@@ -21905,10 +21982,10 @@
     </row>
     <row r="554">
       <c r="A554" s="4" t="s">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>1277</v>
+        <v>1081</v>
       </c>
       <c r="C554" s="16"/>
       <c r="D554" s="16"/>
@@ -21919,15 +21996,13 @@
     </row>
     <row r="555">
       <c r="A555" s="4" t="s">
-        <v>1491</v>
+        <v>171</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>1307</v>
+        <v>1272</v>
       </c>
       <c r="C555" s="16"/>
-      <c r="D555" s="9" t="s">
-        <v>1492</v>
-      </c>
+      <c r="D555" s="16"/>
       <c r="E555" s="14"/>
       <c r="F555" s="14"/>
       <c r="G555" s="14"/>
@@ -21935,10 +22010,10 @@
     </row>
     <row r="556">
       <c r="A556" s="4" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>577</v>
+        <v>1417</v>
       </c>
       <c r="C556" s="16"/>
       <c r="D556" s="16"/>
@@ -21949,10 +22024,10 @@
     </row>
     <row r="557">
       <c r="A557" s="4" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>1094</v>
+        <v>646</v>
       </c>
       <c r="C557" s="16"/>
       <c r="D557" s="16"/>
@@ -21963,10 +22038,10 @@
     </row>
     <row r="558">
       <c r="A558" s="4" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>1097</v>
+        <v>1493</v>
       </c>
       <c r="C558" s="16"/>
       <c r="D558" s="16"/>
@@ -21977,10 +22052,10 @@
     </row>
     <row r="559">
       <c r="A559" s="4" t="s">
-        <v>615</v>
+        <v>1499</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>1099</v>
+        <v>1500</v>
       </c>
       <c r="C559" s="16"/>
       <c r="D559" s="16"/>
@@ -21991,10 +22066,10 @@
     </row>
     <row r="560">
       <c r="A560" s="4" t="s">
-        <v>436</v>
+        <v>1501</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>1101</v>
+        <v>1502</v>
       </c>
       <c r="C560" s="16"/>
       <c r="D560" s="16"/>
@@ -22005,13 +22080,15 @@
     </row>
     <row r="561">
       <c r="A561" s="4" t="s">
-        <v>1496</v>
+        <v>590</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>653</v>
+        <v>1236</v>
       </c>
       <c r="C561" s="16"/>
-      <c r="D561" s="16"/>
+      <c r="D561" s="9" t="s">
+        <v>1503</v>
+      </c>
       <c r="E561" s="14"/>
       <c r="F561" s="14"/>
       <c r="G561" s="14"/>
@@ -22019,13 +22096,15 @@
     </row>
     <row r="562">
       <c r="A562" s="4" t="s">
-        <v>1497</v>
+        <v>1504</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>1117</v>
+        <v>1288</v>
       </c>
       <c r="C562" s="16"/>
-      <c r="D562" s="16"/>
+      <c r="D562" s="9" t="s">
+        <v>1505</v>
+      </c>
       <c r="E562" s="14"/>
       <c r="F562" s="14"/>
       <c r="G562" s="14"/>
@@ -22033,10 +22112,10 @@
     </row>
     <row r="563">
       <c r="A563" s="4" t="s">
-        <v>1498</v>
+        <v>1506</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>1117</v>
+        <v>1294</v>
       </c>
       <c r="C563" s="16"/>
       <c r="D563" s="16"/>
@@ -22047,14 +22126,14 @@
     </row>
     <row r="564">
       <c r="A564" s="4" t="s">
-        <v>1499</v>
+        <v>1507</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>1500</v>
+        <v>1324</v>
       </c>
       <c r="C564" s="16"/>
       <c r="D564" s="9" t="s">
-        <v>1501</v>
+        <v>1508</v>
       </c>
       <c r="E564" s="14"/>
       <c r="F564" s="14"/>
@@ -22063,10 +22142,10 @@
     </row>
     <row r="565">
       <c r="A565" s="4" t="s">
-        <v>1502</v>
+        <v>1509</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>1503</v>
+        <v>577</v>
       </c>
       <c r="C565" s="16"/>
       <c r="D565" s="16"/>
@@ -22077,10 +22156,10 @@
     </row>
     <row r="566">
       <c r="A566" s="4" t="s">
-        <v>1504</v>
+        <v>1510</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>1505</v>
+        <v>1112</v>
       </c>
       <c r="C566" s="16"/>
       <c r="D566" s="16"/>
@@ -22091,10 +22170,10 @@
     </row>
     <row r="567">
       <c r="A567" s="4" t="s">
-        <v>1506</v>
+        <v>1511</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>1507</v>
+        <v>1115</v>
       </c>
       <c r="C567" s="16"/>
       <c r="D567" s="16"/>
@@ -22105,10 +22184,10 @@
     </row>
     <row r="568">
       <c r="A568" s="4" t="s">
-        <v>1508</v>
+        <v>615</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>1509</v>
+        <v>1117</v>
       </c>
       <c r="C568" s="16"/>
       <c r="D568" s="16"/>
@@ -22119,10 +22198,10 @@
     </row>
     <row r="569">
       <c r="A569" s="4" t="s">
-        <v>1510</v>
+        <v>436</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>1511</v>
+        <v>1119</v>
       </c>
       <c r="C569" s="16"/>
       <c r="D569" s="16"/>
@@ -22136,7 +22215,7 @@
         <v>1512</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>1513</v>
+        <v>653</v>
       </c>
       <c r="C570" s="16"/>
       <c r="D570" s="16"/>
@@ -22147,10 +22226,10 @@
     </row>
     <row r="571">
       <c r="A571" s="4" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="C571" s="16"/>
       <c r="D571" s="16"/>
@@ -22161,10 +22240,10 @@
     </row>
     <row r="572">
       <c r="A572" s="4" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>1516</v>
+        <v>1127</v>
       </c>
       <c r="C572" s="16"/>
       <c r="D572" s="16"/>
@@ -22175,13 +22254,15 @@
     </row>
     <row r="573">
       <c r="A573" s="4" t="s">
-        <v>626</v>
+        <v>1515</v>
       </c>
       <c r="B573" s="5" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C573" s="16"/>
+      <c r="D573" s="9" t="s">
         <v>1517</v>
       </c>
-      <c r="C573" s="16"/>
-      <c r="D573" s="16"/>
       <c r="E573" s="14"/>
       <c r="F573" s="14"/>
       <c r="G573" s="14"/>
@@ -22220,7 +22301,7 @@
         <v>1522</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>90</v>
+        <v>1523</v>
       </c>
       <c r="C576" s="16"/>
       <c r="D576" s="16"/>
@@ -22231,10 +22312,10 @@
     </row>
     <row r="577">
       <c r="A577" s="4" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>90</v>
+        <v>1525</v>
       </c>
       <c r="C577" s="16"/>
       <c r="D577" s="16"/>
@@ -22245,10 +22326,10 @@
     </row>
     <row r="578">
       <c r="A578" s="4" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="B578" s="5" t="s">
-        <v>90</v>
+        <v>1527</v>
       </c>
       <c r="C578" s="16"/>
       <c r="D578" s="16"/>
@@ -22259,10 +22340,10 @@
     </row>
     <row r="579">
       <c r="A579" s="4" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>90</v>
+        <v>1529</v>
       </c>
       <c r="C579" s="16"/>
       <c r="D579" s="16"/>
@@ -22273,10 +22354,10 @@
     </row>
     <row r="580">
       <c r="A580" s="4" t="s">
-        <v>1526</v>
+        <v>1530</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>90</v>
+        <v>1163</v>
       </c>
       <c r="C580" s="16"/>
       <c r="D580" s="16"/>
@@ -22287,10 +22368,10 @@
     </row>
     <row r="581">
       <c r="A581" s="4" t="s">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>90</v>
+        <v>1532</v>
       </c>
       <c r="C581" s="16"/>
       <c r="D581" s="16"/>
@@ -22301,10 +22382,10 @@
     </row>
     <row r="582">
       <c r="A582" s="4" t="s">
-        <v>1528</v>
+        <v>626</v>
       </c>
       <c r="B582" s="5" t="s">
-        <v>90</v>
+        <v>1533</v>
       </c>
       <c r="C582" s="16"/>
       <c r="D582" s="16"/>
@@ -22315,10 +22396,10 @@
     </row>
     <row r="583">
       <c r="A583" s="4" t="s">
-        <v>1529</v>
+        <v>1534</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>90</v>
+        <v>1535</v>
       </c>
       <c r="C583" s="16"/>
       <c r="D583" s="16"/>
@@ -22329,10 +22410,10 @@
     </row>
     <row r="584">
       <c r="A584" s="4" t="s">
-        <v>1530</v>
+        <v>1536</v>
       </c>
       <c r="B584" s="5" t="s">
-        <v>90</v>
+        <v>1537</v>
       </c>
       <c r="C584" s="16"/>
       <c r="D584" s="16"/>
@@ -22343,7 +22424,7 @@
     </row>
     <row r="585">
       <c r="A585" s="4" t="s">
-        <v>1531</v>
+        <v>1538</v>
       </c>
       <c r="B585" s="5" t="s">
         <v>90</v>
@@ -22357,7 +22438,7 @@
     </row>
     <row r="586">
       <c r="A586" s="4" t="s">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="B586" s="5" t="s">
         <v>90</v>
@@ -22371,7 +22452,7 @@
     </row>
     <row r="587">
       <c r="A587" s="4" t="s">
-        <v>1533</v>
+        <v>1540</v>
       </c>
       <c r="B587" s="5" t="s">
         <v>90</v>
@@ -22385,7 +22466,7 @@
     </row>
     <row r="588">
       <c r="A588" s="4" t="s">
-        <v>1534</v>
+        <v>1541</v>
       </c>
       <c r="B588" s="5" t="s">
         <v>90</v>
@@ -22399,7 +22480,7 @@
     </row>
     <row r="589">
       <c r="A589" s="4" t="s">
-        <v>1535</v>
+        <v>1542</v>
       </c>
       <c r="B589" s="5" t="s">
         <v>90</v>
@@ -22413,7 +22494,7 @@
     </row>
     <row r="590">
       <c r="A590" s="4" t="s">
-        <v>1536</v>
+        <v>1543</v>
       </c>
       <c r="B590" s="5" t="s">
         <v>90</v>
@@ -22427,10 +22508,10 @@
     </row>
     <row r="591">
       <c r="A591" s="4" t="s">
-        <v>1537</v>
+        <v>1544</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>1271</v>
+        <v>90</v>
       </c>
       <c r="C591" s="16"/>
       <c r="D591" s="16"/>
@@ -22441,10 +22522,10 @@
     </row>
     <row r="592">
       <c r="A592" s="4" t="s">
-        <v>1538</v>
+        <v>1545</v>
       </c>
       <c r="B592" s="5" t="s">
-        <v>1273</v>
+        <v>90</v>
       </c>
       <c r="C592" s="16"/>
       <c r="D592" s="16"/>
@@ -22455,15 +22536,13 @@
     </row>
     <row r="593">
       <c r="A593" s="4" t="s">
-        <v>1539</v>
+        <v>1546</v>
       </c>
       <c r="B593" s="5" t="s">
-        <v>1265</v>
+        <v>90</v>
       </c>
       <c r="C593" s="16"/>
-      <c r="D593" s="9" t="s">
-        <v>1540</v>
-      </c>
+      <c r="D593" s="16"/>
       <c r="E593" s="14"/>
       <c r="F593" s="14"/>
       <c r="G593" s="14"/>
@@ -22471,10 +22550,10 @@
     </row>
     <row r="594">
       <c r="A594" s="4" t="s">
-        <v>1541</v>
+        <v>1547</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>1269</v>
+        <v>90</v>
       </c>
       <c r="C594" s="16"/>
       <c r="D594" s="16"/>
@@ -22485,10 +22564,10 @@
     </row>
     <row r="595">
       <c r="A595" s="4" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>1220</v>
+        <v>90</v>
       </c>
       <c r="C595" s="16"/>
       <c r="D595" s="16"/>
@@ -22499,15 +22578,13 @@
     </row>
     <row r="596">
       <c r="A596" s="4" t="s">
-        <v>1543</v>
+        <v>1549</v>
       </c>
       <c r="B596" s="5" t="s">
-        <v>1544</v>
+        <v>90</v>
       </c>
       <c r="C596" s="16"/>
-      <c r="D596" s="9" t="s">
-        <v>1545</v>
-      </c>
+      <c r="D596" s="16"/>
       <c r="E596" s="14"/>
       <c r="F596" s="14"/>
       <c r="G596" s="14"/>
@@ -22515,10 +22592,10 @@
     </row>
     <row r="597">
       <c r="A597" s="4" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>1289</v>
+        <v>90</v>
       </c>
       <c r="C597" s="16"/>
       <c r="D597" s="16"/>
@@ -22529,10 +22606,10 @@
     </row>
     <row r="598">
       <c r="A598" s="4" t="s">
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>1287</v>
+        <v>90</v>
       </c>
       <c r="C598" s="16"/>
       <c r="D598" s="16"/>
@@ -22543,15 +22620,13 @@
     </row>
     <row r="599">
       <c r="A599" s="4" t="s">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>1549</v>
+        <v>90</v>
       </c>
       <c r="C599" s="16"/>
-      <c r="D599" s="9" t="s">
-        <v>1550</v>
-      </c>
+      <c r="D599" s="16"/>
       <c r="E599" s="14"/>
       <c r="F599" s="14"/>
       <c r="G599" s="14"/>
@@ -22559,10 +22634,10 @@
     </row>
     <row r="600">
       <c r="A600" s="4" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>1552</v>
+        <v>1288</v>
       </c>
       <c r="C600" s="16"/>
       <c r="D600" s="16"/>
@@ -22573,10 +22648,10 @@
     </row>
     <row r="601">
       <c r="A601" s="4" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="C601" s="16"/>
       <c r="D601" s="16"/>
@@ -22587,13 +22662,15 @@
     </row>
     <row r="602">
       <c r="A602" s="4" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B602" s="5" t="s">
-        <v>1298</v>
+        <v>1282</v>
       </c>
       <c r="C602" s="16"/>
-      <c r="D602" s="16"/>
+      <c r="D602" s="9" t="s">
+        <v>1556</v>
+      </c>
       <c r="E602" s="14"/>
       <c r="F602" s="14"/>
       <c r="G602" s="14"/>
@@ -22601,10 +22678,10 @@
     </row>
     <row r="603">
       <c r="A603" s="4" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>1556</v>
+        <v>1286</v>
       </c>
       <c r="C603" s="16"/>
       <c r="D603" s="16"/>
@@ -22615,15 +22692,13 @@
     </row>
     <row r="604">
       <c r="A604" s="4" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>1558</v>
+        <v>1236</v>
       </c>
       <c r="C604" s="16"/>
-      <c r="D604" s="9" t="s">
-        <v>1559</v>
-      </c>
+      <c r="D604" s="16"/>
       <c r="E604" s="14"/>
       <c r="F604" s="14"/>
       <c r="G604" s="14"/>
@@ -22631,13 +22706,15 @@
     </row>
     <row r="605">
       <c r="A605" s="4" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B605" s="5" t="s">
         <v>1560</v>
       </c>
-      <c r="B605" s="5" t="s">
-        <v>579</v>
-      </c>
       <c r="C605" s="16"/>
-      <c r="D605" s="16"/>
+      <c r="D605" s="9" t="s">
+        <v>1561</v>
+      </c>
       <c r="E605" s="14"/>
       <c r="F605" s="14"/>
       <c r="G605" s="14"/>
@@ -22645,15 +22722,13 @@
     </row>
     <row r="606">
       <c r="A606" s="4" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B606" s="5" t="s">
-        <v>1503</v>
+        <v>1306</v>
       </c>
       <c r="C606" s="16"/>
-      <c r="D606" s="9" t="s">
-        <v>1562</v>
-      </c>
+      <c r="D606" s="16"/>
       <c r="E606" s="14"/>
       <c r="F606" s="14"/>
       <c r="G606" s="14"/>
@@ -22664,7 +22739,7 @@
         <v>1563</v>
       </c>
       <c r="B607" s="5" t="s">
-        <v>1505</v>
+        <v>1304</v>
       </c>
       <c r="C607" s="16"/>
       <c r="D607" s="16"/>
@@ -22681,7 +22756,9 @@
         <v>1565</v>
       </c>
       <c r="C608" s="16"/>
-      <c r="D608" s="16"/>
+      <c r="D608" s="9" t="s">
+        <v>1566</v>
+      </c>
       <c r="E608" s="14"/>
       <c r="F608" s="14"/>
       <c r="G608" s="14"/>
@@ -22689,10 +22766,10 @@
     </row>
     <row r="609">
       <c r="A609" s="4" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="C609" s="16"/>
       <c r="D609" s="16"/>
@@ -22703,10 +22780,10 @@
     </row>
     <row r="610">
       <c r="A610" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B610" s="5" t="s">
-        <v>1569</v>
+        <v>1312</v>
       </c>
       <c r="C610" s="16"/>
       <c r="D610" s="16"/>
@@ -22720,12 +22797,10 @@
         <v>1570</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>1571</v>
+        <v>1315</v>
       </c>
       <c r="C611" s="16"/>
-      <c r="D611" s="9" t="s">
-        <v>1572</v>
-      </c>
+      <c r="D611" s="16"/>
       <c r="E611" s="14"/>
       <c r="F611" s="14"/>
       <c r="G611" s="14"/>
@@ -22733,10 +22808,10 @@
     </row>
     <row r="612">
       <c r="A612" s="4" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="B612" s="5" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C612" s="16"/>
       <c r="D612" s="16"/>
@@ -22747,13 +22822,15 @@
     </row>
     <row r="613">
       <c r="A613" s="4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B613" s="5" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C613" s="16"/>
+      <c r="D613" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B613" s="5" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C613" s="16"/>
-      <c r="D613" s="16"/>
       <c r="E613" s="14"/>
       <c r="F613" s="14"/>
       <c r="G613" s="14"/>
@@ -22764,7 +22841,7 @@
         <v>1576</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>1577</v>
+        <v>579</v>
       </c>
       <c r="C614" s="16"/>
       <c r="D614" s="16"/>
@@ -22775,13 +22852,15 @@
     </row>
     <row r="615">
       <c r="A615" s="4" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B615" s="5" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C615" s="16"/>
+      <c r="D615" s="9" t="s">
         <v>1578</v>
       </c>
-      <c r="B615" s="5" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C615" s="16"/>
-      <c r="D615" s="16"/>
       <c r="E615" s="14"/>
       <c r="F615" s="14"/>
       <c r="G615" s="14"/>
@@ -22789,10 +22868,10 @@
     </row>
     <row r="616">
       <c r="A616" s="4" t="s">
-        <v>613</v>
+        <v>1579</v>
       </c>
       <c r="B616" s="5" t="s">
-        <v>1290</v>
+        <v>1521</v>
       </c>
       <c r="C616" s="16"/>
       <c r="D616" s="16"/>
@@ -22803,10 +22882,10 @@
     </row>
     <row r="617">
       <c r="A617" s="4" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B617" s="5" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="C617" s="16"/>
       <c r="D617" s="16"/>
@@ -22817,10 +22896,10 @@
     </row>
     <row r="618">
       <c r="A618" s="4" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B618" s="5" t="s">
-        <v>509</v>
+        <v>1583</v>
       </c>
       <c r="C618" s="16"/>
       <c r="D618" s="16"/>
@@ -22831,10 +22910,10 @@
     </row>
     <row r="619">
       <c r="A619" s="4" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="B619" s="5" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="C619" s="16"/>
       <c r="D619" s="16"/>
@@ -22844,13 +22923,15 @@
       <c r="H619" s="14"/>
     </row>
     <row r="620">
-      <c r="A620" s="21" t="s">
-        <v>1584</v>
-      </c>
-      <c r="B620" s="6"/>
-      <c r="C620" s="12"/>
-      <c r="D620" s="11" t="s">
-        <v>1585</v>
+      <c r="A620" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B620" s="5" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C620" s="16"/>
+      <c r="D620" s="9" t="s">
+        <v>1588</v>
       </c>
       <c r="E620" s="14"/>
       <c r="F620" s="14"/>
@@ -22858,90 +22939,126 @@
       <c r="H620" s="14"/>
     </row>
     <row r="621">
-      <c r="A621" s="22"/>
-      <c r="B621" s="6"/>
-      <c r="C621" s="12"/>
-      <c r="D621" s="12"/>
+      <c r="A621" s="4" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B621" s="5" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C621" s="16"/>
+      <c r="D621" s="16"/>
       <c r="E621" s="14"/>
       <c r="F621" s="14"/>
       <c r="G621" s="14"/>
       <c r="H621" s="14"/>
     </row>
     <row r="622">
-      <c r="A622" s="22"/>
-      <c r="B622" s="6"/>
-      <c r="C622" s="12"/>
-      <c r="D622" s="12"/>
+      <c r="A622" s="4" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B622" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C622" s="16"/>
+      <c r="D622" s="16"/>
       <c r="E622" s="14"/>
       <c r="F622" s="14"/>
       <c r="G622" s="14"/>
       <c r="H622" s="14"/>
     </row>
     <row r="623">
-      <c r="A623" s="22"/>
-      <c r="B623" s="6"/>
-      <c r="C623" s="12"/>
-      <c r="D623" s="12"/>
+      <c r="A623" s="4" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B623" s="5" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C623" s="16"/>
+      <c r="D623" s="16"/>
       <c r="E623" s="14"/>
       <c r="F623" s="14"/>
       <c r="G623" s="14"/>
       <c r="H623" s="14"/>
     </row>
     <row r="624">
-      <c r="A624" s="22"/>
-      <c r="B624" s="6"/>
-      <c r="C624" s="12"/>
-      <c r="D624" s="12"/>
+      <c r="A624" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B624" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C624" s="16"/>
+      <c r="D624" s="16"/>
       <c r="E624" s="14"/>
       <c r="F624" s="14"/>
       <c r="G624" s="14"/>
       <c r="H624" s="14"/>
     </row>
     <row r="625">
-      <c r="A625" s="22"/>
-      <c r="B625" s="6"/>
-      <c r="C625" s="12"/>
-      <c r="D625" s="12"/>
+      <c r="A625" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B625" s="5" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C625" s="16"/>
+      <c r="D625" s="16"/>
       <c r="E625" s="14"/>
       <c r="F625" s="14"/>
       <c r="G625" s="14"/>
       <c r="H625" s="14"/>
     </row>
     <row r="626">
-      <c r="A626" s="22"/>
-      <c r="B626" s="6"/>
-      <c r="C626" s="12"/>
-      <c r="D626" s="12"/>
+      <c r="A626" s="4" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B626" s="5" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C626" s="16"/>
+      <c r="D626" s="16"/>
       <c r="E626" s="14"/>
       <c r="F626" s="14"/>
       <c r="G626" s="14"/>
       <c r="H626" s="14"/>
     </row>
     <row r="627">
-      <c r="A627" s="22"/>
-      <c r="B627" s="6"/>
-      <c r="C627" s="12"/>
-      <c r="D627" s="12"/>
+      <c r="A627" s="4" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B627" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C627" s="16"/>
+      <c r="D627" s="16"/>
       <c r="E627" s="14"/>
       <c r="F627" s="14"/>
       <c r="G627" s="14"/>
       <c r="H627" s="14"/>
     </row>
     <row r="628">
-      <c r="A628" s="22"/>
-      <c r="B628" s="6"/>
-      <c r="C628" s="12"/>
-      <c r="D628" s="12"/>
+      <c r="A628" s="4" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B628" s="5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C628" s="16"/>
+      <c r="D628" s="16"/>
       <c r="E628" s="14"/>
       <c r="F628" s="14"/>
       <c r="G628" s="14"/>
       <c r="H628" s="14"/>
     </row>
     <row r="629">
-      <c r="A629" s="22"/>
+      <c r="A629" s="21" t="s">
+        <v>1600</v>
+      </c>
       <c r="B629" s="6"/>
       <c r="C629" s="12"/>
-      <c r="D629" s="12"/>
+      <c r="D629" s="11" t="s">
+        <v>1601</v>
+      </c>
       <c r="E629" s="14"/>
       <c r="F629" s="14"/>
       <c r="G629" s="14"/>
@@ -26757,8 +26874,98 @@
       <c r="G1010" s="14"/>
       <c r="H1010" s="14"/>
     </row>
+    <row r="1011">
+      <c r="A1011" s="22"/>
+      <c r="B1011" s="6"/>
+      <c r="C1011" s="12"/>
+      <c r="D1011" s="12"/>
+      <c r="E1011" s="14"/>
+      <c r="F1011" s="14"/>
+      <c r="G1011" s="14"/>
+      <c r="H1011" s="14"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="22"/>
+      <c r="B1012" s="6"/>
+      <c r="C1012" s="12"/>
+      <c r="D1012" s="12"/>
+      <c r="E1012" s="14"/>
+      <c r="F1012" s="14"/>
+      <c r="G1012" s="14"/>
+      <c r="H1012" s="14"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="22"/>
+      <c r="B1013" s="6"/>
+      <c r="C1013" s="12"/>
+      <c r="D1013" s="12"/>
+      <c r="E1013" s="14"/>
+      <c r="F1013" s="14"/>
+      <c r="G1013" s="14"/>
+      <c r="H1013" s="14"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="22"/>
+      <c r="B1014" s="6"/>
+      <c r="C1014" s="12"/>
+      <c r="D1014" s="12"/>
+      <c r="E1014" s="14"/>
+      <c r="F1014" s="14"/>
+      <c r="G1014" s="14"/>
+      <c r="H1014" s="14"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="22"/>
+      <c r="B1015" s="6"/>
+      <c r="C1015" s="12"/>
+      <c r="D1015" s="12"/>
+      <c r="E1015" s="14"/>
+      <c r="F1015" s="14"/>
+      <c r="G1015" s="14"/>
+      <c r="H1015" s="14"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="22"/>
+      <c r="B1016" s="6"/>
+      <c r="C1016" s="12"/>
+      <c r="D1016" s="12"/>
+      <c r="E1016" s="14"/>
+      <c r="F1016" s="14"/>
+      <c r="G1016" s="14"/>
+      <c r="H1016" s="14"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="22"/>
+      <c r="B1017" s="6"/>
+      <c r="C1017" s="12"/>
+      <c r="D1017" s="12"/>
+      <c r="E1017" s="14"/>
+      <c r="F1017" s="14"/>
+      <c r="G1017" s="14"/>
+      <c r="H1017" s="14"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="22"/>
+      <c r="B1018" s="6"/>
+      <c r="C1018" s="12"/>
+      <c r="D1018" s="12"/>
+      <c r="E1018" s="14"/>
+      <c r="F1018" s="14"/>
+      <c r="G1018" s="14"/>
+      <c r="H1018" s="14"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="22"/>
+      <c r="B1019" s="6"/>
+      <c r="C1019" s="12"/>
+      <c r="D1019" s="12"/>
+      <c r="E1019" s="14"/>
+      <c r="F1019" s="14"/>
+      <c r="G1019" s="14"/>
+      <c r="H1019" s="14"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:C225 D1:D7 E1:Z1005 D9:D225 A226:D1005">
+  <conditionalFormatting sqref="A1:C318 D1:D7 E1:Z1014 D9:D318 A319:D1014">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
@@ -26787,53 +26994,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="s">
-        <v>1586</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>1587</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="23" t="s">
-        <v>1588</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="23" t="s">
-        <v>1589</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="23" t="s">
-        <v>1590</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="23" t="s">
-        <v>1591</v>
+        <v>1607</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>1592</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="23" t="s">
-        <v>1593</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="23" t="s">
-        <v>1594</v>
+        <v>1610</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>1595</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="23" t="s">
-        <v>1593</v>
+        <v>1609</v>
       </c>
     </row>
   </sheetData>
@@ -26853,19 +27060,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
-        <v>1596</v>
+        <v>1612</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>1597</v>
+        <v>1613</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>1598</v>
+        <v>1614</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>1599</v>
+        <v>1615</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>1600</v>
+        <v>1616</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
@@ -26877,16 +27084,16 @@
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>1601</v>
+        <v>1617</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>1602</v>
+        <v>1618</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>1603</v>
+        <v>1619</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>1604</v>
+        <v>1620</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
@@ -26899,16 +27106,16 @@
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>1605</v>
+        <v>1621</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>1602</v>
+        <v>1618</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>1603</v>
+        <v>1619</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>1606</v>
+        <v>1622</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
@@ -26921,16 +27128,16 @@
     </row>
     <row r="4">
       <c r="A4" s="26" t="s">
-        <v>1607</v>
+        <v>1623</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>1602</v>
+        <v>1618</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>1603</v>
+        <v>1619</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>1608</v>
+        <v>1624</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
@@ -26943,16 +27150,16 @@
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
-        <v>1609</v>
+        <v>1625</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>1602</v>
+        <v>1618</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>1603</v>
+        <v>1619</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>1610</v>
+        <v>1626</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
@@ -26965,16 +27172,16 @@
     </row>
     <row r="6">
       <c r="A6" s="26" t="s">
-        <v>1611</v>
+        <v>1627</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>1602</v>
+        <v>1618</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>1603</v>
+        <v>1619</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>1612</v>
+        <v>1628</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
@@ -26987,19 +27194,19 @@
     </row>
     <row r="7">
       <c r="A7" s="26" t="s">
-        <v>1613</v>
+        <v>1629</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>1602</v>
+        <v>1618</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>1603</v>
+        <v>1619</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>1614</v>
+        <v>1630</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>1615</v>
+        <v>1631</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -27011,16 +27218,16 @@
     </row>
     <row r="8">
       <c r="A8" s="26" t="s">
-        <v>1616</v>
+        <v>1632</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>1602</v>
+        <v>1618</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>1603</v>
+        <v>1619</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>1617</v>
+        <v>1633</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
@@ -27033,16 +27240,16 @@
     </row>
     <row r="9">
       <c r="A9" s="26" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>1618</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>1602</v>
-      </c>
       <c r="C9" s="19" t="s">
-        <v>1603</v>
+        <v>1619</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>1619</v>
+        <v>1635</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -27055,19 +27262,19 @@
     </row>
     <row r="10">
       <c r="A10" s="26" t="s">
-        <v>1620</v>
+        <v>1636</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>1602</v>
+        <v>1618</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>1603</v>
+        <v>1619</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>1621</v>
+        <v>1637</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>1622</v>
+        <v>1638</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
@@ -27079,19 +27286,19 @@
     </row>
     <row r="11">
       <c r="A11" s="26" t="s">
-        <v>1623</v>
+        <v>1639</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>1602</v>
+        <v>1618</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>1603</v>
+        <v>1619</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>1624</v>
+        <v>1640</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>1625</v>
+        <v>1641</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
@@ -27103,16 +27310,16 @@
     </row>
     <row r="12">
       <c r="A12" s="26" t="s">
-        <v>1626</v>
+        <v>1642</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>1602</v>
+        <v>1618</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>1603</v>
+        <v>1619</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>1627</v>
+        <v>1643</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
@@ -27125,16 +27332,16 @@
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
-        <v>1628</v>
+        <v>1644</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>1602</v>
+        <v>1618</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>1603</v>
+        <v>1619</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>1629</v>
+        <v>1645</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
@@ -27147,19 +27354,19 @@
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
-        <v>1630</v>
+        <v>1646</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>1602</v>
+        <v>1618</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>1603</v>
+        <v>1619</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>1631</v>
+        <v>1647</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>1632</v>
+        <v>1648</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
@@ -27171,16 +27378,16 @@
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
-        <v>1633</v>
+        <v>1649</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>1602</v>
+        <v>1618</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>1603</v>
+        <v>1619</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>1634</v>
+        <v>1650</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
@@ -27193,16 +27400,16 @@
     </row>
     <row r="16">
       <c r="A16" s="27" t="s">
-        <v>1635</v>
+        <v>1651</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>1602</v>
+        <v>1618</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>1603</v>
+        <v>1619</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>1636</v>
+        <v>1652</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
@@ -27215,16 +27422,16 @@
     </row>
     <row r="17">
       <c r="A17" s="27" t="s">
-        <v>1637</v>
+        <v>1653</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>1602</v>
+        <v>1618</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>1603</v>
+        <v>1619</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>1638</v>
+        <v>1654</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
@@ -27237,16 +27444,16 @@
     </row>
     <row r="18">
       <c r="A18" s="27" t="s">
-        <v>1639</v>
+        <v>1655</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>1602</v>
+        <v>1618</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>1603</v>
+        <v>1619</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>1640</v>
+        <v>1656</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
@@ -27259,16 +27466,16 @@
     </row>
     <row r="19">
       <c r="A19" s="27" t="s">
-        <v>1641</v>
+        <v>1657</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>1602</v>
+        <v>1618</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>1603</v>
+        <v>1619</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>1642</v>
+        <v>1658</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
@@ -27281,16 +27488,16 @@
     </row>
     <row r="20">
       <c r="A20" s="27" t="s">
-        <v>1643</v>
+        <v>1659</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>1602</v>
+        <v>1618</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>1603</v>
+        <v>1619</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>1644</v>
+        <v>1660</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
@@ -27303,7 +27510,7 @@
     </row>
     <row r="21">
       <c r="A21" s="27" t="s">
-        <v>1645</v>
+        <v>1661</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="19"/>
@@ -30282,84 +30489,99 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="30" t="s">
-        <v>1646</v>
+        <v>1662</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>1647</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="32" t="s">
-        <v>1648</v>
+        <v>1664</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>1649</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="23" t="s">
-        <v>1650</v>
+        <v>1666</v>
       </c>
       <c r="E4" s="23"/>
     </row>
     <row r="5">
       <c r="A5" s="23" t="s">
-        <v>1651</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="23" t="s">
-        <v>1652</v>
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="23" t="s">
+        <v>1669</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="32" t="s">
-        <v>1653</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="23" t="s">
-        <v>1654</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="23" t="s">
-        <v>1655</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="23" t="s">
-        <v>1656</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="23" t="s">
-        <v>1657</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="23" t="s">
-        <v>1658</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="23" t="s">
-        <v>1659</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="23" t="s">
-        <v>1660</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="23" t="s">
-        <v>1661</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="33" t="s">
-        <v>1662</v>
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="23" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="23" t="s">
+        <v>1681</v>
       </c>
     </row>
   </sheetData>
